--- a/document/テーブル仕様書.xlsx
+++ b/document/テーブル仕様書.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="28035" windowHeight="12015"/>
+    <workbookView xWindow="360" yWindow="45" windowWidth="28035" windowHeight="11985" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -14,22 +14,26 @@
     <sheet name="質問添付TR" sheetId="6" r:id="rId5"/>
     <sheet name="回答添付TR " sheetId="7" r:id="rId6"/>
     <sheet name="利用者MST" sheetId="8" r:id="rId7"/>
+    <sheet name="案件MST" sheetId="9" r:id="rId8"/>
+    <sheet name="案件利用者MST" sheetId="10" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'E-R図'!$A$1:$K$40</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">テーブル一覧!$A$1:$K$8</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">テーブル一覧!$A$1:$K$10</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">案件MST!$A$1:$N$8</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="8">案件利用者MST!$A$1:$N$9</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'回答MST '!$A$1:$N$11</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'回答添付TR '!$A$1:$N$9</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">質問MST!$A$1:$N$15</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">質問添付TR!$A$1:$N$9</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">利用者MST!$A$1:$N$10</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">利用者MST!$A$1:$N$11</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="121">
   <si>
     <t>システム名</t>
     <rPh sb="4" eb="5">
@@ -740,6 +744,152 @@
     <t>暗号化パスワード</t>
     <rPh sb="0" eb="3">
       <t>アンゴウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>adimn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理者フラグ</t>
+    <rPh sb="0" eb="3">
+      <t>カンリシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>INTEGER</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0以外の場合は管理者権限を持つ利用者。デフォルト0</t>
+    <rPh sb="1" eb="3">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>リヨウシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>嶋田　智文</t>
+    <rPh sb="0" eb="2">
+      <t>シマダ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>トモフミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> matters</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>案件ID</t>
+    <rPh sb="0" eb="2">
+      <t>アンケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> matter_users</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>matter_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>案件MST</t>
+    <rPh sb="0" eb="2">
+      <t>アンケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>matters</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>質問の案件に関するマスタ</t>
+    <rPh sb="0" eb="2">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>アンケン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>matter_users</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>案件利用者MST</t>
+    <rPh sb="0" eb="2">
+      <t>アンケン</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>リヨウシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>案件別の利用者に関するマスタ</t>
+    <rPh sb="0" eb="2">
+      <t>アンケン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>リヨウシャ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第3版</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ハン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -825,7 +975,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="79">
+  <borders count="82">
     <border>
       <left/>
       <right/>
@@ -1889,6 +2039,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="hair">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom style="hair">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1896,7 +2083,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2002,6 +2189,108 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2044,81 +2333,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2137,6 +2351,57 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2147,57 +2412,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3280,16 +3494,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>790575</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3298,7 +3512,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4838700" y="1104900"/>
+          <a:off x="3676650" y="1123950"/>
           <a:ext cx="1143000" cy="485775"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3358,6 +3572,680 @@
               <a:schemeClr val="tx1"/>
             </a:solidFill>
           </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="正方形/長方形 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1676400" y="2305050"/>
+          <a:ext cx="1143000" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>案件</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>MST</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>147638</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>533401</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>147638</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="直線コネクタ 6"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="20" idx="3"/>
+          <a:endCxn id="2" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2819400" y="2547938"/>
+          <a:ext cx="828676" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>942975</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="テキスト ボックス 27"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2828925" y="2343150"/>
+          <a:ext cx="190500" cy="190499"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>１</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>506942</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>131232</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="テキスト ボックス 28"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3429000" y="2343150"/>
+          <a:ext cx="192617" cy="188382"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+            <a:t>n</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="正方形/長方形 29"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1676400" y="1123950"/>
+          <a:ext cx="1143000" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>利用者案件</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>MST</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="直線コネクタ 17"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="30" idx="3"/>
+          <a:endCxn id="19" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2819400" y="1366838"/>
+          <a:ext cx="857250" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="直線コネクタ 30"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="30" idx="2"/>
+          <a:endCxn id="20" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2247900" y="1609725"/>
+          <a:ext cx="0" cy="695325"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="テキスト ボックス 34"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3438525" y="1143000"/>
+          <a:ext cx="190500" cy="190499"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>１</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>781050</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>973667</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>140757</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="テキスト ボックス 35"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2857500" y="1152525"/>
+          <a:ext cx="192617" cy="188382"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+            <a:t>n</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>971550</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="テキスト ボックス 36"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2009775" y="2076450"/>
+          <a:ext cx="190500" cy="190499"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>１</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>971550</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>125942</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>112182</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="テキスト ボックス 37"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2009775" y="1638300"/>
+          <a:ext cx="192617" cy="188382"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+            <a:t>n</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3653,9 +4541,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="A4" sqref="A4:B4"/>
     </sheetView>
   </sheetViews>
@@ -3667,18 +4555,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="41" t="s">
+      <c r="B1" s="74"/>
+      <c r="C1" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="40"/>
-      <c r="E1" s="42" t="s">
+      <c r="D1" s="74"/>
+      <c r="E1" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="43"/>
+      <c r="F1" s="77"/>
       <c r="G1" s="5" t="s">
         <v>3</v>
       </c>
@@ -3696,16 +4584,16 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="12" customHeight="1">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="83" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="51" t="s">
+      <c r="B2" s="84"/>
+      <c r="C2" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="52"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
       <c r="G2" s="2" t="s">
         <v>19</v>
       </c>
@@ -3723,72 +4611,72 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="12" customHeight="1">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="47" t="s">
+      <c r="B3" s="80"/>
+      <c r="C3" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="46"/>
-      <c r="E3" s="47" t="s">
+      <c r="D3" s="80"/>
+      <c r="E3" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="48"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="81"/>
+      <c r="K3" s="82"/>
     </row>
     <row r="4" spans="1:11" ht="12" customHeight="1">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="60"/>
-      <c r="C4" s="61" t="s">
+      <c r="B4" s="61"/>
+      <c r="C4" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="62"/>
-      <c r="E4" s="63" t="s">
+      <c r="D4" s="63"/>
+      <c r="E4" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64"/>
-      <c r="K4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="66"/>
     </row>
     <row r="5" spans="1:11" ht="12" customHeight="1">
-      <c r="A5" s="66" t="s">
+      <c r="A5" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="67"/>
-      <c r="C5" s="68" t="s">
+      <c r="B5" s="68"/>
+      <c r="C5" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="67"/>
-      <c r="E5" s="69" t="s">
+      <c r="D5" s="68"/>
+      <c r="E5" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
-      <c r="I5" s="70"/>
-      <c r="J5" s="70"/>
-      <c r="K5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="72"/>
     </row>
     <row r="6" spans="1:11" ht="12" customHeight="1">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="B6" s="54"/>
-      <c r="C6" s="55" t="s">
+      <c r="B6" s="55"/>
+      <c r="C6" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="D6" s="54"/>
-      <c r="E6" s="56" t="s">
+      <c r="D6" s="55"/>
+      <c r="E6" s="59" t="s">
         <v>87</v>
       </c>
       <c r="F6" s="57"/>
@@ -3799,15 +4687,15 @@
       <c r="K6" s="58"/>
     </row>
     <row r="7" spans="1:11" ht="12" customHeight="1">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="B7" s="54"/>
-      <c r="C7" s="55" t="s">
+      <c r="B7" s="55"/>
+      <c r="C7" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="55" t="s">
+      <c r="D7" s="55"/>
+      <c r="E7" s="56" t="s">
         <v>88</v>
       </c>
       <c r="F7" s="57"/>
@@ -3818,35 +4706,81 @@
       <c r="K7" s="58"/>
     </row>
     <row r="8" spans="1:11" ht="12" customHeight="1">
-      <c r="A8" s="72" t="s">
+      <c r="A8" s="54" t="s">
         <v>89</v>
       </c>
-      <c r="B8" s="73"/>
-      <c r="C8" s="74" t="s">
+      <c r="B8" s="55"/>
+      <c r="C8" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="D8" s="73"/>
-      <c r="E8" s="75" t="s">
+      <c r="D8" s="55"/>
+      <c r="E8" s="56" t="s">
         <v>91</v>
       </c>
-      <c r="F8" s="76"/>
-      <c r="G8" s="76"/>
-      <c r="H8" s="76"/>
-      <c r="I8" s="76"/>
-      <c r="J8" s="76"/>
-      <c r="K8" s="77"/>
-    </row>
-    <row r="11" spans="1:11" ht="12" customHeight="1">
-      <c r="C11" s="22"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="58"/>
+    </row>
+    <row r="9" spans="1:11" ht="12" customHeight="1">
+      <c r="A9" s="54" t="s">
+        <v>115</v>
+      </c>
+      <c r="B9" s="55"/>
+      <c r="C9" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="D9" s="55"/>
+      <c r="E9" s="59" t="s">
+        <v>116</v>
+      </c>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="58"/>
+    </row>
+    <row r="10" spans="1:11" ht="12" customHeight="1">
+      <c r="A10" s="48" t="s">
+        <v>117</v>
+      </c>
+      <c r="B10" s="49"/>
+      <c r="C10" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="D10" s="49"/>
+      <c r="E10" s="51" t="s">
+        <v>119</v>
+      </c>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="53"/>
+    </row>
+    <row r="12" spans="1:11" ht="12" customHeight="1">
+      <c r="C12" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:K8"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:K7"/>
+  <mergeCells count="29">
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:K9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:K10"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:K3"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E6:K6"/>
@@ -3856,14 +4790,12 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="E5:K5"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:K3"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:K8"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:K7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3876,7 +4808,7 @@
   <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3886,18 +4818,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="80" t="s">
+      <c r="B1" s="88"/>
+      <c r="C1" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="79"/>
-      <c r="E1" s="81" t="s">
+      <c r="D1" s="88"/>
+      <c r="E1" s="90" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="82"/>
+      <c r="F1" s="91"/>
       <c r="G1" s="24" t="s">
         <v>3</v>
       </c>
@@ -3915,16 +4847,16 @@
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="92" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="51" t="s">
+      <c r="B2" s="84"/>
+      <c r="C2" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="52"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
       <c r="G2" s="21" t="s">
         <v>19</v>
       </c>
@@ -3935,10 +4867,10 @@
         <v>19</v>
       </c>
       <c r="J2" s="3">
-        <v>42065</v>
+        <v>42118</v>
       </c>
       <c r="K2" s="26" t="s">
-        <v>20</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -4454,8 +5386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.625" defaultRowHeight="12" customHeight="1"/>
@@ -4470,27 +5402,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="41" t="s">
+      <c r="B1" s="74"/>
+      <c r="C1" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="40"/>
-      <c r="E1" s="42" t="s">
+      <c r="D1" s="74"/>
+      <c r="E1" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="43"/>
-      <c r="G1" s="41" t="s">
+      <c r="F1" s="77"/>
+      <c r="G1" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41" t="s">
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="41"/>
+      <c r="K1" s="75"/>
       <c r="L1" s="7" t="s">
         <v>5</v>
       </c>
@@ -4502,25 +5434,25 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="12" customHeight="1">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="83" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50" t="s">
+      <c r="B2" s="84"/>
+      <c r="C2" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="50"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="50" t="s">
+      <c r="D2" s="84"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="93">
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="109">
         <v>42060</v>
       </c>
-      <c r="K2" s="52"/>
+      <c r="K2" s="86"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="4" t="s">
@@ -4528,14 +5460,14 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="12" customHeight="1">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="47" t="s">
+      <c r="B3" s="80"/>
+      <c r="C3" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="46"/>
+      <c r="D3" s="80"/>
       <c r="E3" s="8" t="s">
         <v>22</v>
       </c>
@@ -4554,22 +5486,22 @@
       <c r="J3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="47" t="s">
+      <c r="K3" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="48"/>
+      <c r="L3" s="81"/>
+      <c r="M3" s="81"/>
+      <c r="N3" s="82"/>
     </row>
     <row r="4" spans="1:14" ht="12" customHeight="1">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="60"/>
-      <c r="C4" s="63" t="s">
+      <c r="B4" s="61"/>
+      <c r="C4" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="84"/>
+      <c r="D4" s="110"/>
       <c r="E4" s="9" t="s">
         <v>34</v>
       </c>
@@ -4582,20 +5514,20 @@
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
-      <c r="K4" s="88"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="89"/>
-      <c r="N4" s="90"/>
+      <c r="K4" s="106"/>
+      <c r="L4" s="107"/>
+      <c r="M4" s="107"/>
+      <c r="N4" s="108"/>
     </row>
     <row r="5" spans="1:14" ht="12" customHeight="1">
-      <c r="A5" s="85" t="s">
+      <c r="A5" s="111" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="86"/>
-      <c r="C5" s="87" t="s">
+      <c r="B5" s="112"/>
+      <c r="C5" s="113" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="86"/>
+      <c r="D5" s="112"/>
       <c r="E5" s="16" t="s">
         <v>69</v>
       </c>
@@ -4608,20 +5540,20 @@
       </c>
       <c r="I5" s="10"/>
       <c r="J5" s="10"/>
-      <c r="K5" s="91"/>
-      <c r="L5" s="91"/>
-      <c r="M5" s="91"/>
-      <c r="N5" s="92"/>
+      <c r="K5" s="98"/>
+      <c r="L5" s="98"/>
+      <c r="M5" s="98"/>
+      <c r="N5" s="99"/>
     </row>
     <row r="6" spans="1:14" ht="12" customHeight="1">
-      <c r="A6" s="99" t="s">
+      <c r="A6" s="104" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="100"/>
-      <c r="C6" s="94" t="s">
+      <c r="B6" s="105"/>
+      <c r="C6" s="97" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="60"/>
+      <c r="D6" s="61"/>
       <c r="E6" s="16" t="s">
         <v>72</v>
       </c>
@@ -4632,20 +5564,20 @@
       </c>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
-      <c r="K6" s="91"/>
-      <c r="L6" s="91"/>
-      <c r="M6" s="91"/>
-      <c r="N6" s="92"/>
+      <c r="K6" s="98"/>
+      <c r="L6" s="98"/>
+      <c r="M6" s="98"/>
+      <c r="N6" s="99"/>
     </row>
     <row r="7" spans="1:14" ht="12" customHeight="1">
-      <c r="A7" s="59" t="s">
+      <c r="A7" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="B7" s="60"/>
-      <c r="C7" s="94" t="s">
+      <c r="B7" s="61"/>
+      <c r="C7" s="97" t="s">
         <v>63</v>
       </c>
-      <c r="D7" s="60"/>
+      <c r="D7" s="61"/>
       <c r="E7" s="16" t="s">
         <v>69</v>
       </c>
@@ -4658,20 +5590,20 @@
       </c>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
-      <c r="K7" s="91"/>
-      <c r="L7" s="91"/>
-      <c r="M7" s="91"/>
-      <c r="N7" s="92"/>
+      <c r="K7" s="98"/>
+      <c r="L7" s="98"/>
+      <c r="M7" s="98"/>
+      <c r="N7" s="99"/>
     </row>
     <row r="8" spans="1:14" ht="12" customHeight="1">
       <c r="A8" s="17" t="s">
         <v>61</v>
       </c>
       <c r="B8" s="15"/>
-      <c r="C8" s="94" t="s">
+      <c r="C8" s="97" t="s">
         <v>62</v>
       </c>
-      <c r="D8" s="60"/>
+      <c r="D8" s="61"/>
       <c r="E8" s="10" t="s">
         <v>34</v>
       </c>
@@ -4684,22 +5616,22 @@
       </c>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
-      <c r="K8" s="98" t="s">
+      <c r="K8" s="103" t="s">
         <v>68</v>
       </c>
-      <c r="L8" s="91"/>
-      <c r="M8" s="91"/>
-      <c r="N8" s="92"/>
+      <c r="L8" s="98"/>
+      <c r="M8" s="98"/>
+      <c r="N8" s="99"/>
     </row>
     <row r="9" spans="1:14" ht="24" customHeight="1">
       <c r="A9" s="17" t="s">
         <v>60</v>
       </c>
       <c r="B9" s="14"/>
-      <c r="C9" s="94" t="s">
+      <c r="C9" s="97" t="s">
         <v>59</v>
       </c>
-      <c r="D9" s="60"/>
+      <c r="D9" s="61"/>
       <c r="E9" s="10" t="s">
         <v>34</v>
       </c>
@@ -4712,22 +5644,22 @@
       </c>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
-      <c r="K9" s="95" t="s">
+      <c r="K9" s="100" t="s">
         <v>66</v>
       </c>
-      <c r="L9" s="96"/>
-      <c r="M9" s="96"/>
-      <c r="N9" s="97"/>
+      <c r="L9" s="101"/>
+      <c r="M9" s="101"/>
+      <c r="N9" s="102"/>
     </row>
     <row r="10" spans="1:14" ht="12" customHeight="1">
-      <c r="A10" s="103" t="s">
+      <c r="A10" s="95" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="104"/>
-      <c r="C10" s="94" t="s">
+      <c r="B10" s="96"/>
+      <c r="C10" s="97" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="60"/>
+      <c r="D10" s="61"/>
       <c r="E10" s="10" t="s">
         <v>46</v>
       </c>
@@ -4738,20 +5670,20 @@
       </c>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
-      <c r="K10" s="91"/>
-      <c r="L10" s="91"/>
-      <c r="M10" s="91"/>
-      <c r="N10" s="92"/>
+      <c r="K10" s="98"/>
+      <c r="L10" s="98"/>
+      <c r="M10" s="98"/>
+      <c r="N10" s="99"/>
     </row>
     <row r="11" spans="1:14" ht="12" customHeight="1">
       <c r="A11" s="17" t="s">
         <v>47</v>
       </c>
       <c r="B11" s="14"/>
-      <c r="C11" s="94" t="s">
+      <c r="C11" s="97" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="60"/>
+      <c r="D11" s="61"/>
       <c r="E11" s="12" t="s">
         <v>34</v>
       </c>
@@ -4766,22 +5698,22 @@
         <v>49</v>
       </c>
       <c r="J11" s="10"/>
-      <c r="K11" s="91" t="s">
+      <c r="K11" s="98" t="s">
         <v>67</v>
       </c>
-      <c r="L11" s="91"/>
-      <c r="M11" s="91"/>
-      <c r="N11" s="92"/>
+      <c r="L11" s="98"/>
+      <c r="M11" s="98"/>
+      <c r="N11" s="99"/>
     </row>
     <row r="12" spans="1:14" ht="12" customHeight="1">
       <c r="A12" s="17" t="s">
         <v>38</v>
       </c>
       <c r="B12" s="14"/>
-      <c r="C12" s="94" t="s">
+      <c r="C12" s="97" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="60"/>
+      <c r="D12" s="61"/>
       <c r="E12" s="16" t="s">
         <v>46</v>
       </c>
@@ -4792,20 +5724,20 @@
       </c>
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
-      <c r="K12" s="91"/>
-      <c r="L12" s="91"/>
-      <c r="M12" s="91"/>
-      <c r="N12" s="92"/>
+      <c r="K12" s="98"/>
+      <c r="L12" s="98"/>
+      <c r="M12" s="98"/>
+      <c r="N12" s="99"/>
     </row>
     <row r="13" spans="1:14" ht="12" customHeight="1">
       <c r="A13" s="17" t="s">
         <v>39</v>
       </c>
       <c r="B13" s="13"/>
-      <c r="C13" s="94" t="s">
+      <c r="C13" s="97" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="60"/>
+      <c r="D13" s="61"/>
       <c r="E13" s="16" t="s">
         <v>69</v>
       </c>
@@ -4818,20 +5750,20 @@
       </c>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
-      <c r="K13" s="91"/>
-      <c r="L13" s="91"/>
-      <c r="M13" s="91"/>
-      <c r="N13" s="92"/>
+      <c r="K13" s="98"/>
+      <c r="L13" s="98"/>
+      <c r="M13" s="98"/>
+      <c r="N13" s="99"/>
     </row>
     <row r="14" spans="1:14" ht="12" customHeight="1">
       <c r="A14" s="17" t="s">
         <v>40</v>
       </c>
       <c r="B14" s="13"/>
-      <c r="C14" s="94" t="s">
+      <c r="C14" s="97" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="60"/>
+      <c r="D14" s="61"/>
       <c r="E14" s="16" t="s">
         <v>46</v>
       </c>
@@ -4842,20 +5774,20 @@
       </c>
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
-      <c r="K14" s="91"/>
-      <c r="L14" s="91"/>
-      <c r="M14" s="91"/>
-      <c r="N14" s="92"/>
+      <c r="K14" s="98"/>
+      <c r="L14" s="98"/>
+      <c r="M14" s="98"/>
+      <c r="N14" s="99"/>
     </row>
     <row r="15" spans="1:14" ht="12" customHeight="1">
       <c r="A15" s="18" t="s">
         <v>41</v>
       </c>
       <c r="B15" s="19"/>
-      <c r="C15" s="74" t="s">
+      <c r="C15" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="73"/>
+      <c r="D15" s="49"/>
       <c r="E15" s="16" t="s">
         <v>69</v>
       </c>
@@ -4866,13 +5798,41 @@
       <c r="H15" s="20"/>
       <c r="I15" s="20"/>
       <c r="J15" s="20"/>
-      <c r="K15" s="101"/>
-      <c r="L15" s="101"/>
-      <c r="M15" s="101"/>
-      <c r="N15" s="102"/>
+      <c r="K15" s="93"/>
+      <c r="L15" s="93"/>
+      <c r="M15" s="93"/>
+      <c r="N15" s="94"/>
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="E1:F2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="K7:N7"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="K15:N15"/>
     <mergeCell ref="A10:B10"/>
@@ -4886,34 +5846,6 @@
     <mergeCell ref="K12:N12"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="K11:N11"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="K9:N9"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="K8:N8"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="K7:N7"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="K3:N3"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F2"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4941,27 +5873,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="41" t="s">
+      <c r="B1" s="74"/>
+      <c r="C1" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="40"/>
-      <c r="E1" s="42" t="s">
+      <c r="D1" s="74"/>
+      <c r="E1" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="43"/>
-      <c r="G1" s="41" t="s">
+      <c r="F1" s="77"/>
+      <c r="G1" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41" t="s">
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="41"/>
+      <c r="K1" s="75"/>
       <c r="L1" s="7" t="s">
         <v>5</v>
       </c>
@@ -4973,25 +5905,25 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="12" customHeight="1">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="83" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50" t="s">
+      <c r="B2" s="84"/>
+      <c r="C2" s="84" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="50"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="50" t="s">
+      <c r="D2" s="84"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="93">
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="109">
         <v>42060</v>
       </c>
-      <c r="K2" s="52"/>
+      <c r="K2" s="86"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="4" t="s">
@@ -4999,14 +5931,14 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="12" customHeight="1">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="47" t="s">
+      <c r="B3" s="80"/>
+      <c r="C3" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="46"/>
+      <c r="D3" s="80"/>
       <c r="E3" s="8" t="s">
         <v>22</v>
       </c>
@@ -5025,22 +5957,22 @@
       <c r="J3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="47" t="s">
+      <c r="K3" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="48"/>
+      <c r="L3" s="81"/>
+      <c r="M3" s="81"/>
+      <c r="N3" s="82"/>
     </row>
     <row r="4" spans="1:14" ht="12" customHeight="1">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="60"/>
-      <c r="C4" s="94" t="s">
+      <c r="B4" s="61"/>
+      <c r="C4" s="97" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="84"/>
+      <c r="D4" s="110"/>
       <c r="E4" s="9" t="s">
         <v>34</v>
       </c>
@@ -5053,20 +5985,20 @@
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
-      <c r="K4" s="88"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="89"/>
-      <c r="N4" s="90"/>
+      <c r="K4" s="106"/>
+      <c r="L4" s="107"/>
+      <c r="M4" s="107"/>
+      <c r="N4" s="108"/>
     </row>
     <row r="5" spans="1:14" ht="12" customHeight="1">
-      <c r="A5" s="85" t="s">
+      <c r="A5" s="111" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="86"/>
-      <c r="C5" s="105" t="s">
+      <c r="B5" s="112"/>
+      <c r="C5" s="114" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="106"/>
+      <c r="D5" s="115"/>
       <c r="E5" s="11" t="s">
         <v>34</v>
       </c>
@@ -5081,20 +6013,20 @@
         <v>56</v>
       </c>
       <c r="J5" s="10"/>
-      <c r="K5" s="91"/>
-      <c r="L5" s="91"/>
-      <c r="M5" s="91"/>
-      <c r="N5" s="92"/>
+      <c r="K5" s="98"/>
+      <c r="L5" s="98"/>
+      <c r="M5" s="98"/>
+      <c r="N5" s="99"/>
     </row>
     <row r="6" spans="1:14" ht="12" customHeight="1">
-      <c r="A6" s="103" t="s">
+      <c r="A6" s="95" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="104"/>
-      <c r="C6" s="107" t="s">
+      <c r="B6" s="96"/>
+      <c r="C6" s="116" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="108"/>
+      <c r="D6" s="117"/>
       <c r="E6" s="16" t="s">
         <v>71</v>
       </c>
@@ -5105,20 +6037,20 @@
       </c>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
-      <c r="K6" s="91"/>
-      <c r="L6" s="91"/>
-      <c r="M6" s="91"/>
-      <c r="N6" s="92"/>
+      <c r="K6" s="98"/>
+      <c r="L6" s="98"/>
+      <c r="M6" s="98"/>
+      <c r="N6" s="99"/>
     </row>
     <row r="7" spans="1:14" ht="12" customHeight="1">
       <c r="A7" s="17" t="s">
         <v>55</v>
       </c>
       <c r="B7" s="15"/>
-      <c r="C7" s="63" t="s">
+      <c r="C7" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="60"/>
+      <c r="D7" s="61"/>
       <c r="E7" s="12" t="s">
         <v>34</v>
       </c>
@@ -5133,22 +6065,22 @@
         <v>49</v>
       </c>
       <c r="J7" s="10"/>
-      <c r="K7" s="91" t="s">
+      <c r="K7" s="98" t="s">
         <v>67</v>
       </c>
-      <c r="L7" s="91"/>
-      <c r="M7" s="91"/>
-      <c r="N7" s="92"/>
+      <c r="L7" s="98"/>
+      <c r="M7" s="98"/>
+      <c r="N7" s="99"/>
     </row>
     <row r="8" spans="1:14" ht="12" customHeight="1">
       <c r="A8" s="17" t="s">
         <v>38</v>
       </c>
       <c r="B8" s="14"/>
-      <c r="C8" s="63" t="s">
+      <c r="C8" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="60"/>
+      <c r="D8" s="61"/>
       <c r="E8" s="16" t="s">
         <v>46</v>
       </c>
@@ -5159,20 +6091,20 @@
       </c>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
-      <c r="K8" s="91"/>
-      <c r="L8" s="91"/>
-      <c r="M8" s="91"/>
-      <c r="N8" s="92"/>
+      <c r="K8" s="98"/>
+      <c r="L8" s="98"/>
+      <c r="M8" s="98"/>
+      <c r="N8" s="99"/>
     </row>
     <row r="9" spans="1:14" ht="12" customHeight="1">
       <c r="A9" s="17" t="s">
         <v>39</v>
       </c>
       <c r="B9" s="13"/>
-      <c r="C9" s="63" t="s">
+      <c r="C9" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="60"/>
+      <c r="D9" s="61"/>
       <c r="E9" s="16" t="s">
         <v>69</v>
       </c>
@@ -5185,20 +6117,20 @@
       </c>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
-      <c r="K9" s="91"/>
-      <c r="L9" s="91"/>
-      <c r="M9" s="91"/>
-      <c r="N9" s="92"/>
+      <c r="K9" s="98"/>
+      <c r="L9" s="98"/>
+      <c r="M9" s="98"/>
+      <c r="N9" s="99"/>
     </row>
     <row r="10" spans="1:14" ht="12" customHeight="1">
       <c r="A10" s="17" t="s">
         <v>40</v>
       </c>
       <c r="B10" s="13"/>
-      <c r="C10" s="63" t="s">
+      <c r="C10" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="60"/>
+      <c r="D10" s="61"/>
       <c r="E10" s="16" t="s">
         <v>46</v>
       </c>
@@ -5209,20 +6141,20 @@
       </c>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
-      <c r="K10" s="91"/>
-      <c r="L10" s="91"/>
-      <c r="M10" s="91"/>
-      <c r="N10" s="92"/>
+      <c r="K10" s="98"/>
+      <c r="L10" s="98"/>
+      <c r="M10" s="98"/>
+      <c r="N10" s="99"/>
     </row>
     <row r="11" spans="1:14" ht="12" customHeight="1">
       <c r="A11" s="18" t="s">
         <v>41</v>
       </c>
       <c r="B11" s="19"/>
-      <c r="C11" s="75" t="s">
+      <c r="C11" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="73"/>
+      <c r="D11" s="49"/>
       <c r="E11" s="16" t="s">
         <v>69</v>
       </c>
@@ -5233,19 +6165,28 @@
       <c r="H11" s="37"/>
       <c r="I11" s="20"/>
       <c r="J11" s="20"/>
-      <c r="K11" s="101"/>
-      <c r="L11" s="101"/>
-      <c r="M11" s="101"/>
-      <c r="N11" s="102"/>
+      <c r="K11" s="93"/>
+      <c r="L11" s="93"/>
+      <c r="M11" s="93"/>
+      <c r="N11" s="94"/>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="K9:N9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F2"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="K4:N4"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="K7:N7"/>
     <mergeCell ref="C8:D8"/>
@@ -5256,21 +6197,12 @@
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="K6:N6"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="K3:N3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F2"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="K11:N11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5298,27 +6230,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="41" t="s">
+      <c r="B1" s="74"/>
+      <c r="C1" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="40"/>
-      <c r="E1" s="42" t="s">
+      <c r="D1" s="74"/>
+      <c r="E1" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="43"/>
-      <c r="G1" s="41" t="s">
+      <c r="F1" s="77"/>
+      <c r="G1" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41" t="s">
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="41"/>
+      <c r="K1" s="75"/>
       <c r="L1" s="31" t="s">
         <v>5</v>
       </c>
@@ -5330,25 +6262,25 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="12" customHeight="1">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="83" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50" t="s">
+      <c r="B2" s="84"/>
+      <c r="C2" s="84" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="50"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="50" t="s">
+      <c r="D2" s="84"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="93">
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="109">
         <v>42065</v>
       </c>
-      <c r="K2" s="52"/>
+      <c r="K2" s="86"/>
       <c r="L2" s="33"/>
       <c r="M2" s="33"/>
       <c r="N2" s="4" t="s">
@@ -5356,14 +6288,14 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="12" customHeight="1">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="47" t="s">
+      <c r="B3" s="80"/>
+      <c r="C3" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="46"/>
+      <c r="D3" s="80"/>
       <c r="E3" s="32" t="s">
         <v>22</v>
       </c>
@@ -5382,22 +6314,22 @@
       <c r="J3" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="47" t="s">
+      <c r="K3" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="48"/>
+      <c r="L3" s="81"/>
+      <c r="M3" s="81"/>
+      <c r="N3" s="82"/>
     </row>
     <row r="4" spans="1:14" ht="12" customHeight="1">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="60"/>
-      <c r="C4" s="63" t="s">
+      <c r="B4" s="61"/>
+      <c r="C4" s="64" t="s">
         <v>74</v>
       </c>
-      <c r="D4" s="84"/>
+      <c r="D4" s="110"/>
       <c r="E4" s="9" t="s">
         <v>34</v>
       </c>
@@ -5410,20 +6342,20 @@
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
-      <c r="K4" s="88"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="89"/>
-      <c r="N4" s="90"/>
+      <c r="K4" s="106"/>
+      <c r="L4" s="107"/>
+      <c r="M4" s="107"/>
+      <c r="N4" s="108"/>
     </row>
     <row r="5" spans="1:14" ht="12" customHeight="1">
-      <c r="A5" s="85" t="s">
+      <c r="A5" s="111" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="86"/>
-      <c r="C5" s="87" t="s">
+      <c r="B5" s="112"/>
+      <c r="C5" s="113" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="86"/>
+      <c r="D5" s="112"/>
       <c r="E5" s="9" t="s">
         <v>34</v>
       </c>
@@ -5438,20 +6370,20 @@
       <c r="J5" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="K5" s="91"/>
-      <c r="L5" s="91"/>
-      <c r="M5" s="91"/>
-      <c r="N5" s="92"/>
+      <c r="K5" s="98"/>
+      <c r="L5" s="98"/>
+      <c r="M5" s="98"/>
+      <c r="N5" s="99"/>
     </row>
     <row r="6" spans="1:14" ht="12" customHeight="1">
-      <c r="A6" s="99" t="s">
+      <c r="A6" s="104" t="s">
         <v>75</v>
       </c>
-      <c r="B6" s="100"/>
-      <c r="C6" s="94" t="s">
+      <c r="B6" s="105"/>
+      <c r="C6" s="97" t="s">
         <v>76</v>
       </c>
-      <c r="D6" s="60"/>
+      <c r="D6" s="61"/>
       <c r="E6" s="16" t="s">
         <v>79</v>
       </c>
@@ -5464,20 +6396,20 @@
       </c>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
-      <c r="K6" s="91"/>
-      <c r="L6" s="91"/>
-      <c r="M6" s="91"/>
-      <c r="N6" s="92"/>
+      <c r="K6" s="98"/>
+      <c r="L6" s="98"/>
+      <c r="M6" s="98"/>
+      <c r="N6" s="99"/>
     </row>
     <row r="7" spans="1:14" ht="12" customHeight="1">
-      <c r="A7" s="59" t="s">
+      <c r="A7" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="B7" s="60"/>
-      <c r="C7" s="94" t="s">
+      <c r="B7" s="61"/>
+      <c r="C7" s="97" t="s">
         <v>78</v>
       </c>
-      <c r="D7" s="60"/>
+      <c r="D7" s="61"/>
       <c r="E7" s="9" t="s">
         <v>34</v>
       </c>
@@ -5490,20 +6422,20 @@
       </c>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
-      <c r="K7" s="91"/>
-      <c r="L7" s="91"/>
-      <c r="M7" s="91"/>
-      <c r="N7" s="92"/>
+      <c r="K7" s="98"/>
+      <c r="L7" s="98"/>
+      <c r="M7" s="98"/>
+      <c r="N7" s="99"/>
     </row>
     <row r="8" spans="1:14" ht="12" customHeight="1">
       <c r="A8" s="17" t="s">
         <v>38</v>
       </c>
       <c r="B8" s="14"/>
-      <c r="C8" s="94" t="s">
+      <c r="C8" s="97" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="60"/>
+      <c r="D8" s="61"/>
       <c r="E8" s="16" t="s">
         <v>46</v>
       </c>
@@ -5514,20 +6446,20 @@
       </c>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
-      <c r="K8" s="91"/>
-      <c r="L8" s="91"/>
-      <c r="M8" s="91"/>
-      <c r="N8" s="92"/>
+      <c r="K8" s="98"/>
+      <c r="L8" s="98"/>
+      <c r="M8" s="98"/>
+      <c r="N8" s="99"/>
     </row>
     <row r="9" spans="1:14" ht="12" customHeight="1">
       <c r="A9" s="17" t="s">
         <v>40</v>
       </c>
       <c r="B9" s="13"/>
-      <c r="C9" s="94" t="s">
+      <c r="C9" s="97" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="60"/>
+      <c r="D9" s="61"/>
       <c r="E9" s="16" t="s">
         <v>46</v>
       </c>
@@ -5538,32 +6470,13 @@
       </c>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
-      <c r="K9" s="91"/>
-      <c r="L9" s="91"/>
-      <c r="M9" s="91"/>
-      <c r="N9" s="92"/>
+      <c r="K9" s="98"/>
+      <c r="L9" s="98"/>
+      <c r="M9" s="98"/>
+      <c r="N9" s="99"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="K9:N9"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="K8:N8"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="K7:N7"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="K3:N3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="K4:N4"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F2"/>
@@ -5573,6 +6486,25 @@
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="K7:N7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5585,7 +6517,7 @@
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="A7" sqref="A7:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.625" defaultRowHeight="12" customHeight="1"/>
@@ -5600,27 +6532,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="41" t="s">
+      <c r="B1" s="74"/>
+      <c r="C1" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="40"/>
-      <c r="E1" s="42" t="s">
+      <c r="D1" s="74"/>
+      <c r="E1" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="43"/>
-      <c r="G1" s="41" t="s">
+      <c r="F1" s="77"/>
+      <c r="G1" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41" t="s">
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="41"/>
+      <c r="K1" s="75"/>
       <c r="L1" s="31" t="s">
         <v>5</v>
       </c>
@@ -5632,25 +6564,25 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="12" customHeight="1">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="83" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50" t="s">
+      <c r="B2" s="84"/>
+      <c r="C2" s="84" t="s">
         <v>83</v>
       </c>
-      <c r="D2" s="50"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="50" t="s">
+      <c r="D2" s="84"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="93">
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="109">
         <v>42065</v>
       </c>
-      <c r="K2" s="52"/>
+      <c r="K2" s="86"/>
       <c r="L2" s="33"/>
       <c r="M2" s="33"/>
       <c r="N2" s="4" t="s">
@@ -5658,14 +6590,14 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="12" customHeight="1">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="47" t="s">
+      <c r="B3" s="80"/>
+      <c r="C3" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="46"/>
+      <c r="D3" s="80"/>
       <c r="E3" s="32" t="s">
         <v>22</v>
       </c>
@@ -5684,22 +6616,22 @@
       <c r="J3" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="47" t="s">
+      <c r="K3" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="48"/>
+      <c r="L3" s="81"/>
+      <c r="M3" s="81"/>
+      <c r="N3" s="82"/>
     </row>
     <row r="4" spans="1:14" ht="12" customHeight="1">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="60"/>
-      <c r="C4" s="63" t="s">
+      <c r="B4" s="61"/>
+      <c r="C4" s="64" t="s">
         <v>81</v>
       </c>
-      <c r="D4" s="84"/>
+      <c r="D4" s="110"/>
       <c r="E4" s="9" t="s">
         <v>34</v>
       </c>
@@ -5712,20 +6644,20 @@
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
-      <c r="K4" s="88"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="89"/>
-      <c r="N4" s="90"/>
+      <c r="K4" s="106"/>
+      <c r="L4" s="107"/>
+      <c r="M4" s="107"/>
+      <c r="N4" s="108"/>
     </row>
     <row r="5" spans="1:14" ht="12" customHeight="1">
-      <c r="A5" s="85" t="s">
+      <c r="A5" s="111" t="s">
         <v>82</v>
       </c>
-      <c r="B5" s="86"/>
-      <c r="C5" s="87" t="s">
+      <c r="B5" s="112"/>
+      <c r="C5" s="113" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="86"/>
+      <c r="D5" s="112"/>
       <c r="E5" s="9" t="s">
         <v>34</v>
       </c>
@@ -5740,20 +6672,20 @@
       <c r="J5" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="K5" s="91"/>
-      <c r="L5" s="91"/>
-      <c r="M5" s="91"/>
-      <c r="N5" s="92"/>
+      <c r="K5" s="98"/>
+      <c r="L5" s="98"/>
+      <c r="M5" s="98"/>
+      <c r="N5" s="99"/>
     </row>
     <row r="6" spans="1:14" ht="12" customHeight="1">
-      <c r="A6" s="99" t="s">
+      <c r="A6" s="104" t="s">
         <v>75</v>
       </c>
-      <c r="B6" s="100"/>
-      <c r="C6" s="94" t="s">
+      <c r="B6" s="105"/>
+      <c r="C6" s="97" t="s">
         <v>76</v>
       </c>
-      <c r="D6" s="60"/>
+      <c r="D6" s="61"/>
       <c r="E6" s="16" t="s">
         <v>79</v>
       </c>
@@ -5766,20 +6698,20 @@
       </c>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
-      <c r="K6" s="91"/>
-      <c r="L6" s="91"/>
-      <c r="M6" s="91"/>
-      <c r="N6" s="92"/>
+      <c r="K6" s="98"/>
+      <c r="L6" s="98"/>
+      <c r="M6" s="98"/>
+      <c r="N6" s="99"/>
     </row>
     <row r="7" spans="1:14" ht="12" customHeight="1">
-      <c r="A7" s="59" t="s">
+      <c r="A7" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="B7" s="60"/>
-      <c r="C7" s="94" t="s">
+      <c r="B7" s="61"/>
+      <c r="C7" s="97" t="s">
         <v>78</v>
       </c>
-      <c r="D7" s="60"/>
+      <c r="D7" s="61"/>
       <c r="E7" s="9" t="s">
         <v>34</v>
       </c>
@@ -5792,20 +6724,20 @@
       </c>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
-      <c r="K7" s="91"/>
-      <c r="L7" s="91"/>
-      <c r="M7" s="91"/>
-      <c r="N7" s="92"/>
+      <c r="K7" s="98"/>
+      <c r="L7" s="98"/>
+      <c r="M7" s="98"/>
+      <c r="N7" s="99"/>
     </row>
     <row r="8" spans="1:14" ht="12" customHeight="1">
       <c r="A8" s="17" t="s">
         <v>38</v>
       </c>
       <c r="B8" s="14"/>
-      <c r="C8" s="94" t="s">
+      <c r="C8" s="97" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="60"/>
+      <c r="D8" s="61"/>
       <c r="E8" s="16" t="s">
         <v>46</v>
       </c>
@@ -5816,20 +6748,20 @@
       </c>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
-      <c r="K8" s="91"/>
-      <c r="L8" s="91"/>
-      <c r="M8" s="91"/>
-      <c r="N8" s="92"/>
+      <c r="K8" s="98"/>
+      <c r="L8" s="98"/>
+      <c r="M8" s="98"/>
+      <c r="N8" s="99"/>
     </row>
     <row r="9" spans="1:14" ht="12" customHeight="1">
       <c r="A9" s="17" t="s">
         <v>40</v>
       </c>
       <c r="B9" s="13"/>
-      <c r="C9" s="94" t="s">
+      <c r="C9" s="97" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="60"/>
+      <c r="D9" s="61"/>
       <c r="E9" s="16" t="s">
         <v>46</v>
       </c>
@@ -5840,32 +6772,13 @@
       </c>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
-      <c r="K9" s="91"/>
-      <c r="L9" s="91"/>
-      <c r="M9" s="91"/>
-      <c r="N9" s="92"/>
+      <c r="K9" s="98"/>
+      <c r="L9" s="98"/>
+      <c r="M9" s="98"/>
+      <c r="N9" s="99"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="K9:N9"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="K7:N7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="K8:N8"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="K3:N3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="K4:N4"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F2"/>
@@ -5875,6 +6788,25 @@
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="K8:N8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5884,10 +6816,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.625" defaultRowHeight="12" customHeight="1"/>
@@ -5902,27 +6834,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="41" t="s">
+      <c r="B1" s="74"/>
+      <c r="C1" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="40"/>
-      <c r="E1" s="42" t="s">
+      <c r="D1" s="74"/>
+      <c r="E1" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="43"/>
-      <c r="G1" s="41" t="s">
+      <c r="F1" s="77"/>
+      <c r="G1" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41" t="s">
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="41"/>
+      <c r="K1" s="75"/>
       <c r="L1" s="34" t="s">
         <v>5</v>
       </c>
@@ -5934,40 +6866,44 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="12" customHeight="1">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="83" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50" t="s">
+      <c r="B2" s="84"/>
+      <c r="C2" s="84" t="s">
         <v>92</v>
       </c>
-      <c r="D2" s="50"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="50" t="s">
+      <c r="D2" s="84"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="93">
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="109">
         <v>42095</v>
       </c>
-      <c r="K2" s="52"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="M2" s="3">
+        <v>42118</v>
+      </c>
       <c r="N2" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="12" customHeight="1">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="47" t="s">
+      <c r="B3" s="80"/>
+      <c r="C3" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="46"/>
+      <c r="D3" s="80"/>
       <c r="E3" s="35" t="s">
         <v>22</v>
       </c>
@@ -5986,22 +6922,22 @@
       <c r="J3" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="47" t="s">
+      <c r="K3" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="48"/>
+      <c r="L3" s="81"/>
+      <c r="M3" s="81"/>
+      <c r="N3" s="82"/>
     </row>
     <row r="4" spans="1:14" ht="12" customHeight="1">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="60"/>
-      <c r="C4" s="94" t="s">
+      <c r="B4" s="61"/>
+      <c r="C4" s="97" t="s">
         <v>95</v>
       </c>
-      <c r="D4" s="84"/>
+      <c r="D4" s="110"/>
       <c r="E4" s="9" t="s">
         <v>34</v>
       </c>
@@ -6014,20 +6950,20 @@
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
-      <c r="K4" s="88"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="89"/>
-      <c r="N4" s="90"/>
+      <c r="K4" s="106"/>
+      <c r="L4" s="107"/>
+      <c r="M4" s="107"/>
+      <c r="N4" s="108"/>
     </row>
     <row r="5" spans="1:14" ht="12" customHeight="1">
-      <c r="A5" s="85" t="s">
+      <c r="A5" s="111" t="s">
         <v>93</v>
       </c>
-      <c r="B5" s="86"/>
-      <c r="C5" s="87" t="s">
+      <c r="B5" s="112"/>
+      <c r="C5" s="113" t="s">
         <v>96</v>
       </c>
-      <c r="D5" s="109"/>
+      <c r="D5" s="118"/>
       <c r="E5" s="16" t="s">
         <v>69</v>
       </c>
@@ -6040,20 +6976,20 @@
       </c>
       <c r="I5" s="10"/>
       <c r="J5" s="10"/>
-      <c r="K5" s="91"/>
-      <c r="L5" s="91"/>
-      <c r="M5" s="91"/>
-      <c r="N5" s="92"/>
+      <c r="K5" s="98"/>
+      <c r="L5" s="98"/>
+      <c r="M5" s="98"/>
+      <c r="N5" s="99"/>
     </row>
     <row r="6" spans="1:14" ht="12" customHeight="1">
-      <c r="A6" s="103" t="s">
+      <c r="A6" s="95" t="s">
         <v>94</v>
       </c>
-      <c r="B6" s="104"/>
-      <c r="C6" s="107" t="s">
+      <c r="B6" s="96"/>
+      <c r="C6" s="116" t="s">
         <v>97</v>
       </c>
-      <c r="D6" s="108"/>
+      <c r="D6" s="117"/>
       <c r="E6" s="16" t="s">
         <v>69</v>
       </c>
@@ -6068,20 +7004,20 @@
         <v>98</v>
       </c>
       <c r="J6" s="10"/>
-      <c r="K6" s="91"/>
-      <c r="L6" s="91"/>
-      <c r="M6" s="91"/>
-      <c r="N6" s="92"/>
+      <c r="K6" s="98"/>
+      <c r="L6" s="98"/>
+      <c r="M6" s="98"/>
+      <c r="N6" s="99"/>
     </row>
     <row r="7" spans="1:14" ht="12" customHeight="1">
-      <c r="A7" s="103" t="s">
+      <c r="A7" s="95" t="s">
         <v>99</v>
       </c>
-      <c r="B7" s="104"/>
-      <c r="C7" s="107" t="s">
+      <c r="B7" s="96"/>
+      <c r="C7" s="116" t="s">
         <v>100</v>
       </c>
-      <c r="D7" s="108"/>
+      <c r="D7" s="117"/>
       <c r="E7" s="16" t="s">
         <v>69</v>
       </c>
@@ -6094,22 +7030,22 @@
       </c>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
-      <c r="K7" s="91"/>
-      <c r="L7" s="91"/>
-      <c r="M7" s="91"/>
-      <c r="N7" s="92"/>
+      <c r="K7" s="98"/>
+      <c r="L7" s="98"/>
+      <c r="M7" s="98"/>
+      <c r="N7" s="99"/>
     </row>
     <row r="8" spans="1:14" ht="12" customHeight="1">
-      <c r="A8" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="63" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="60"/>
+      <c r="A8" s="44" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" s="45"/>
+      <c r="C8" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="D8" s="46"/>
       <c r="E8" s="12" t="s">
-        <v>34</v>
+        <v>103</v>
       </c>
       <c r="F8" s="11">
         <v>4</v>
@@ -6119,87 +7055,96 @@
         <v>37</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>49</v>
+        <v>105</v>
       </c>
       <c r="J8" s="10"/>
-      <c r="K8" s="91" t="s">
-        <v>67</v>
-      </c>
-      <c r="L8" s="91"/>
-      <c r="M8" s="91"/>
-      <c r="N8" s="92"/>
+      <c r="K8" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="L8" s="42"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="43"/>
     </row>
     <row r="9" spans="1:14" ht="12" customHeight="1">
       <c r="A9" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="63" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="60"/>
-      <c r="E9" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" s="10"/>
+        <v>47</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="64" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="61"/>
+      <c r="E9" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="11">
+        <v>4</v>
+      </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="I9" s="10"/>
+      <c r="I9" s="10" t="s">
+        <v>49</v>
+      </c>
       <c r="J9" s="10"/>
-      <c r="K9" s="91"/>
-      <c r="L9" s="91"/>
-      <c r="M9" s="91"/>
-      <c r="N9" s="92"/>
+      <c r="K9" s="98" t="s">
+        <v>67</v>
+      </c>
+      <c r="L9" s="98"/>
+      <c r="M9" s="98"/>
+      <c r="N9" s="99"/>
     </row>
     <row r="10" spans="1:14" ht="12" customHeight="1">
       <c r="A10" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="63" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="60"/>
+        <v>38</v>
+      </c>
+      <c r="B10" s="14"/>
+      <c r="C10" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="61"/>
       <c r="E10" s="16" t="s">
         <v>46</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
-      <c r="H10" s="38" t="s">
+      <c r="H10" s="10" t="s">
         <v>37</v>
       </c>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
-      <c r="K10" s="91"/>
-      <c r="L10" s="91"/>
-      <c r="M10" s="91"/>
-      <c r="N10" s="92"/>
+      <c r="K10" s="98"/>
+      <c r="L10" s="98"/>
+      <c r="M10" s="98"/>
+      <c r="N10" s="99"/>
+    </row>
+    <row r="11" spans="1:14" ht="12" customHeight="1">
+      <c r="A11" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="13"/>
+      <c r="C11" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="61"/>
+      <c r="E11" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="98"/>
+      <c r="L11" s="98"/>
+      <c r="M11" s="98"/>
+      <c r="N11" s="99"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="K7:N7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="K8:N8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="K9:N9"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="K3:N3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="K4:N4"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F2"/>
@@ -6209,6 +7154,604 @@
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="K10:N10"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="92" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N8"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="13.625" defaultRowHeight="12" customHeight="1"/>
+  <cols>
+    <col min="1" max="6" width="13.625" style="1"/>
+    <col min="7" max="9" width="5.125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="5.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="6.5" style="1" customWidth="1"/>
+    <col min="12" max="13" width="14.125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="6.625" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="13.625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="13.5" customHeight="1">
+      <c r="A1" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="74"/>
+      <c r="C1" s="75" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="74"/>
+      <c r="E1" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="77"/>
+      <c r="G1" s="75" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="75"/>
+      <c r="L1" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="12" customHeight="1">
+      <c r="A2" s="83" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="84"/>
+      <c r="C2" s="84" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2" s="84"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="84" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="109">
+        <v>42118</v>
+      </c>
+      <c r="K2" s="86"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="12" customHeight="1">
+      <c r="A3" s="79" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="80"/>
+      <c r="C3" s="81" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="80"/>
+      <c r="E3" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="81" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="81"/>
+      <c r="M3" s="81"/>
+      <c r="N3" s="82"/>
+    </row>
+    <row r="4" spans="1:14" ht="12" customHeight="1">
+      <c r="A4" s="60" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="61"/>
+      <c r="C4" s="97" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" s="110"/>
+      <c r="E4" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="9">
+        <v>4</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="106"/>
+      <c r="L4" s="107"/>
+      <c r="M4" s="107"/>
+      <c r="N4" s="108"/>
+    </row>
+    <row r="5" spans="1:14" ht="12" customHeight="1">
+      <c r="A5" s="111" t="s">
+        <v>109</v>
+      </c>
+      <c r="B5" s="112"/>
+      <c r="C5" s="113" t="s">
+        <v>110</v>
+      </c>
+      <c r="D5" s="118"/>
+      <c r="E5" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="11">
+        <v>255</v>
+      </c>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="98"/>
+      <c r="L5" s="98"/>
+      <c r="M5" s="98"/>
+      <c r="N5" s="99"/>
+    </row>
+    <row r="6" spans="1:14" ht="12" customHeight="1">
+      <c r="A6" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="15"/>
+      <c r="C6" s="64" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="61"/>
+      <c r="E6" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="11">
+        <v>4</v>
+      </c>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="J6" s="10"/>
+      <c r="K6" s="98" t="s">
+        <v>67</v>
+      </c>
+      <c r="L6" s="98"/>
+      <c r="M6" s="98"/>
+      <c r="N6" s="99"/>
+    </row>
+    <row r="7" spans="1:14" ht="12" customHeight="1">
+      <c r="A7" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="14"/>
+      <c r="C7" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="61"/>
+      <c r="E7" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="98"/>
+      <c r="L7" s="98"/>
+      <c r="M7" s="98"/>
+      <c r="N7" s="99"/>
+    </row>
+    <row r="8" spans="1:14" ht="12" customHeight="1">
+      <c r="A8" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="13"/>
+      <c r="C8" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="61"/>
+      <c r="E8" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="98"/>
+      <c r="L8" s="98"/>
+      <c r="M8" s="98"/>
+      <c r="N8" s="99"/>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F2"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="K7:N7"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="92" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N9"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="13.625" defaultRowHeight="12" customHeight="1"/>
+  <cols>
+    <col min="1" max="6" width="13.625" style="1"/>
+    <col min="7" max="9" width="5.125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="5.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="6.5" style="1" customWidth="1"/>
+    <col min="12" max="13" width="14.125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="6.625" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="13.625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="13.5" customHeight="1">
+      <c r="A1" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="74"/>
+      <c r="C1" s="75" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="74"/>
+      <c r="E1" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="77"/>
+      <c r="G1" s="75" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="75"/>
+      <c r="L1" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="12" customHeight="1">
+      <c r="A2" s="83" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="84"/>
+      <c r="C2" s="84" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" s="84"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="84" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="109">
+        <v>42118</v>
+      </c>
+      <c r="K2" s="86"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="12" customHeight="1">
+      <c r="A3" s="79" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="80"/>
+      <c r="C3" s="81" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="80"/>
+      <c r="E3" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="81" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="81"/>
+      <c r="M3" s="81"/>
+      <c r="N3" s="82"/>
+    </row>
+    <row r="4" spans="1:14" ht="12" customHeight="1">
+      <c r="A4" s="60" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="61"/>
+      <c r="C4" s="97" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" s="110"/>
+      <c r="E4" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="9">
+        <v>4</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="106"/>
+      <c r="L4" s="107"/>
+      <c r="M4" s="107"/>
+      <c r="N4" s="108"/>
+    </row>
+    <row r="5" spans="1:14" ht="12" customHeight="1">
+      <c r="A5" s="111" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" s="112"/>
+      <c r="C5" s="113" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5" s="118"/>
+      <c r="E5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="9">
+        <v>4</v>
+      </c>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="98"/>
+      <c r="L5" s="98"/>
+      <c r="M5" s="98"/>
+      <c r="N5" s="99"/>
+    </row>
+    <row r="6" spans="1:14" ht="12" customHeight="1">
+      <c r="A6" s="111" t="s">
+        <v>113</v>
+      </c>
+      <c r="B6" s="112"/>
+      <c r="C6" s="113" t="s">
+        <v>108</v>
+      </c>
+      <c r="D6" s="118"/>
+      <c r="E6" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="9">
+        <v>4</v>
+      </c>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="98"/>
+      <c r="L6" s="98"/>
+      <c r="M6" s="98"/>
+      <c r="N6" s="99"/>
+    </row>
+    <row r="7" spans="1:14" ht="12" customHeight="1">
+      <c r="A7" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="15"/>
+      <c r="C7" s="64" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="61"/>
+      <c r="E7" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="11">
+        <v>4</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="J7" s="10"/>
+      <c r="K7" s="98" t="s">
+        <v>67</v>
+      </c>
+      <c r="L7" s="98"/>
+      <c r="M7" s="98"/>
+      <c r="N7" s="99"/>
+    </row>
+    <row r="8" spans="1:14" ht="12" customHeight="1">
+      <c r="A8" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="14"/>
+      <c r="C8" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="61"/>
+      <c r="E8" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="98"/>
+      <c r="L8" s="98"/>
+      <c r="M8" s="98"/>
+      <c r="N8" s="99"/>
+    </row>
+    <row r="9" spans="1:14" ht="12" customHeight="1">
+      <c r="A9" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="13"/>
+      <c r="C9" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="61"/>
+      <c r="E9" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="98"/>
+      <c r="L9" s="98"/>
+      <c r="M9" s="98"/>
+      <c r="N9" s="99"/>
+    </row>
+  </sheetData>
+  <mergeCells count="27">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F2"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="K8:N8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/document/テーブル仕様書.xlsx
+++ b/document/テーブル仕様書.xlsx
@@ -24,7 +24,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="8">案件利用者MST!$A$1:$N$9</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'回答MST '!$A$1:$N$11</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'回答添付TR '!$A$1:$N$9</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">質問MST!$A$1:$N$15</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">質問MST!$A$1:$N$16</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">質問添付TR!$A$1:$N$9</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">利用者MST!$A$1:$N$11</definedName>
   </definedNames>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="122">
   <si>
     <t>システム名</t>
     <rPh sb="4" eb="5">
@@ -826,10 +826,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>matter_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>案件MST</t>
     <rPh sb="0" eb="2">
       <t>アンケン</t>
@@ -890,6 +886,20 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>ハン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>matter_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>嶋田　智文</t>
+    <rPh sb="0" eb="2">
+      <t>シマダ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>トモフミ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2216,6 +2226,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2234,23 +2262,47 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2291,48 +2343,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2351,6 +2361,57 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2361,57 +2422,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4555,18 +4565,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="75" t="s">
+      <c r="B1" s="61"/>
+      <c r="C1" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="74"/>
-      <c r="E1" s="76" t="s">
+      <c r="D1" s="61"/>
+      <c r="E1" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="77"/>
+      <c r="F1" s="64"/>
       <c r="G1" s="5" t="s">
         <v>3</v>
       </c>
@@ -4584,16 +4594,16 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="12" customHeight="1">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="85" t="s">
+      <c r="B2" s="71"/>
+      <c r="C2" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="86"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
       <c r="G2" s="2" t="s">
         <v>19</v>
       </c>
@@ -4611,176 +4621,168 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="12" customHeight="1">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="81" t="s">
+      <c r="B3" s="67"/>
+      <c r="C3" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="80"/>
-      <c r="E3" s="81" t="s">
+      <c r="D3" s="67"/>
+      <c r="E3" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="81"/>
-      <c r="K3" s="82"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="69"/>
     </row>
     <row r="4" spans="1:11" ht="12" customHeight="1">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="62" t="s">
+      <c r="B4" s="75"/>
+      <c r="C4" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="63"/>
-      <c r="E4" s="64" t="s">
+      <c r="D4" s="77"/>
+      <c r="E4" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65"/>
-      <c r="K4" s="66"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="80"/>
     </row>
     <row r="5" spans="1:11" ht="12" customHeight="1">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="68"/>
-      <c r="C5" s="69" t="s">
+      <c r="B5" s="82"/>
+      <c r="C5" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="68"/>
-      <c r="E5" s="70" t="s">
+      <c r="D5" s="82"/>
+      <c r="E5" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="71"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="71"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="72"/>
+      <c r="F5" s="85"/>
+      <c r="G5" s="85"/>
+      <c r="H5" s="85"/>
+      <c r="I5" s="85"/>
+      <c r="J5" s="85"/>
+      <c r="K5" s="86"/>
     </row>
     <row r="6" spans="1:11" ht="12" customHeight="1">
-      <c r="A6" s="54" t="s">
+      <c r="A6" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="B6" s="55"/>
-      <c r="C6" s="56" t="s">
+      <c r="B6" s="49"/>
+      <c r="C6" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="D6" s="55"/>
-      <c r="E6" s="59" t="s">
+      <c r="D6" s="49"/>
+      <c r="E6" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="57"/>
-      <c r="K6" s="58"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="53"/>
     </row>
     <row r="7" spans="1:11" ht="12" customHeight="1">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="48" t="s">
         <v>85</v>
       </c>
-      <c r="B7" s="55"/>
-      <c r="C7" s="56" t="s">
+      <c r="B7" s="49"/>
+      <c r="C7" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="55"/>
-      <c r="E7" s="56" t="s">
+      <c r="D7" s="49"/>
+      <c r="E7" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
-      <c r="K7" s="58"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="53"/>
     </row>
     <row r="8" spans="1:11" ht="12" customHeight="1">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="48" t="s">
         <v>89</v>
       </c>
-      <c r="B8" s="55"/>
-      <c r="C8" s="56" t="s">
+      <c r="B8" s="49"/>
+      <c r="C8" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="D8" s="55"/>
-      <c r="E8" s="56" t="s">
+      <c r="D8" s="49"/>
+      <c r="E8" s="50" t="s">
         <v>91</v>
       </c>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="57"/>
-      <c r="K8" s="58"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="53"/>
     </row>
     <row r="9" spans="1:11" ht="12" customHeight="1">
-      <c r="A9" s="54" t="s">
+      <c r="A9" s="48" t="s">
+        <v>114</v>
+      </c>
+      <c r="B9" s="49"/>
+      <c r="C9" s="50" t="s">
+        <v>113</v>
+      </c>
+      <c r="D9" s="49"/>
+      <c r="E9" s="51" t="s">
         <v>115</v>
       </c>
-      <c r="B9" s="55"/>
-      <c r="C9" s="56" t="s">
-        <v>114</v>
-      </c>
-      <c r="D9" s="55"/>
-      <c r="E9" s="59" t="s">
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="53"/>
+    </row>
+    <row r="10" spans="1:11" ht="12" customHeight="1">
+      <c r="A10" s="54" t="s">
         <v>116</v>
       </c>
-      <c r="F9" s="57"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="57"/>
-      <c r="K9" s="58"/>
-    </row>
-    <row r="10" spans="1:11" ht="12" customHeight="1">
-      <c r="A10" s="48" t="s">
+      <c r="B10" s="55"/>
+      <c r="C10" s="56" t="s">
         <v>117</v>
       </c>
-      <c r="B10" s="49"/>
-      <c r="C10" s="50" t="s">
+      <c r="D10" s="55"/>
+      <c r="E10" s="57" t="s">
         <v>118</v>
       </c>
-      <c r="D10" s="49"/>
-      <c r="E10" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="F10" s="52"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="52"/>
-      <c r="K10" s="53"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="59"/>
     </row>
     <row r="12" spans="1:11" ht="12" customHeight="1">
       <c r="C12" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:K9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:K10"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:K3"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:K8"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:K7"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E6:K6"/>
@@ -4790,12 +4792,20 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="E5:K5"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:K8"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:K7"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:K3"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:K9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:K10"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4850,13 +4860,13 @@
       <c r="A2" s="92" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="85" t="s">
+      <c r="B2" s="71"/>
+      <c r="C2" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="86"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
       <c r="G2" s="21" t="s">
         <v>19</v>
       </c>
@@ -4870,7 +4880,7 @@
         <v>42118</v>
       </c>
       <c r="K2" s="26" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -5384,10 +5394,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.625" defaultRowHeight="12" customHeight="1"/>
@@ -5402,27 +5412,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="75" t="s">
+      <c r="B1" s="61"/>
+      <c r="C1" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="74"/>
-      <c r="E1" s="76" t="s">
+      <c r="D1" s="61"/>
+      <c r="E1" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="77"/>
-      <c r="G1" s="75" t="s">
+      <c r="F1" s="64"/>
+      <c r="G1" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75" t="s">
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="75"/>
+      <c r="K1" s="62"/>
       <c r="L1" s="7" t="s">
         <v>5</v>
       </c>
@@ -5434,40 +5444,44 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="12" customHeight="1">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84" t="s">
+      <c r="B2" s="71"/>
+      <c r="C2" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="84"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="84" t="s">
+      <c r="D2" s="71"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="109">
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="102">
         <v>42060</v>
       </c>
-      <c r="K2" s="86"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="M2" s="3">
+        <v>42145</v>
+      </c>
       <c r="N2" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="12" customHeight="1">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="81" t="s">
+      <c r="B3" s="67"/>
+      <c r="C3" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="80"/>
+      <c r="D3" s="67"/>
       <c r="E3" s="8" t="s">
         <v>22</v>
       </c>
@@ -5486,22 +5500,22 @@
       <c r="J3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="81" t="s">
+      <c r="K3" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="81"/>
-      <c r="M3" s="81"/>
-      <c r="N3" s="82"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="69"/>
     </row>
     <row r="4" spans="1:14" ht="12" customHeight="1">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="64" t="s">
+      <c r="B4" s="75"/>
+      <c r="C4" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="110"/>
+      <c r="D4" s="93"/>
       <c r="E4" s="9" t="s">
         <v>34</v>
       </c>
@@ -5514,25 +5528,25 @@
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
-      <c r="K4" s="106"/>
-      <c r="L4" s="107"/>
-      <c r="M4" s="107"/>
-      <c r="N4" s="108"/>
+      <c r="K4" s="97"/>
+      <c r="L4" s="98"/>
+      <c r="M4" s="98"/>
+      <c r="N4" s="99"/>
     </row>
     <row r="5" spans="1:14" ht="12" customHeight="1">
-      <c r="A5" s="111" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="112"/>
-      <c r="C5" s="113" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="112"/>
-      <c r="E5" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="F5" s="10">
-        <v>40</v>
+      <c r="A5" s="94" t="s">
+        <v>120</v>
+      </c>
+      <c r="B5" s="95"/>
+      <c r="C5" s="96" t="s">
+        <v>108</v>
+      </c>
+      <c r="D5" s="118"/>
+      <c r="E5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="9">
+        <v>4</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10" t="s">
@@ -5540,75 +5554,75 @@
       </c>
       <c r="I5" s="10"/>
       <c r="J5" s="10"/>
-      <c r="K5" s="98"/>
-      <c r="L5" s="98"/>
-      <c r="M5" s="98"/>
-      <c r="N5" s="99"/>
+      <c r="K5" s="100"/>
+      <c r="L5" s="100"/>
+      <c r="M5" s="100"/>
+      <c r="N5" s="101"/>
     </row>
     <row r="6" spans="1:14" ht="12" customHeight="1">
-      <c r="A6" s="104" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="105"/>
-      <c r="C6" s="97" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="61"/>
+      <c r="A6" s="94" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="95"/>
+      <c r="C6" s="96" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="95"/>
       <c r="E6" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="F6" s="10"/>
+        <v>69</v>
+      </c>
+      <c r="F6" s="10">
+        <v>40</v>
+      </c>
       <c r="G6" s="10"/>
       <c r="H6" s="10" t="s">
         <v>37</v>
       </c>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
-      <c r="K6" s="98"/>
-      <c r="L6" s="98"/>
-      <c r="M6" s="98"/>
-      <c r="N6" s="99"/>
+      <c r="K6" s="100"/>
+      <c r="L6" s="100"/>
+      <c r="M6" s="100"/>
+      <c r="N6" s="101"/>
     </row>
     <row r="7" spans="1:14" ht="12" customHeight="1">
-      <c r="A7" s="60" t="s">
-        <v>64</v>
-      </c>
-      <c r="B7" s="61"/>
-      <c r="C7" s="97" t="s">
-        <v>63</v>
-      </c>
-      <c r="D7" s="61"/>
+      <c r="A7" s="108" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="109"/>
+      <c r="C7" s="103" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="75"/>
       <c r="E7" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="F7" s="10">
-        <v>64</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="F7" s="10"/>
       <c r="G7" s="10"/>
       <c r="H7" s="10" t="s">
         <v>37</v>
       </c>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
-      <c r="K7" s="98"/>
-      <c r="L7" s="98"/>
-      <c r="M7" s="98"/>
-      <c r="N7" s="99"/>
+      <c r="K7" s="100"/>
+      <c r="L7" s="100"/>
+      <c r="M7" s="100"/>
+      <c r="N7" s="101"/>
     </row>
     <row r="8" spans="1:14" ht="12" customHeight="1">
-      <c r="A8" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="97" t="s">
-        <v>62</v>
-      </c>
-      <c r="D8" s="61"/>
-      <c r="E8" s="10" t="s">
-        <v>34</v>
+      <c r="A8" s="74" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="75"/>
+      <c r="C8" s="103" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="75"/>
+      <c r="E8" s="16" t="s">
+        <v>69</v>
       </c>
       <c r="F8" s="10">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10" t="s">
@@ -5616,22 +5630,20 @@
       </c>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
-      <c r="K8" s="103" t="s">
-        <v>68</v>
-      </c>
-      <c r="L8" s="98"/>
-      <c r="M8" s="98"/>
-      <c r="N8" s="99"/>
-    </row>
-    <row r="9" spans="1:14" ht="24" customHeight="1">
+      <c r="K8" s="100"/>
+      <c r="L8" s="100"/>
+      <c r="M8" s="100"/>
+      <c r="N8" s="101"/>
+    </row>
+    <row r="9" spans="1:14" ht="12" customHeight="1">
       <c r="A9" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="97" t="s">
-        <v>59</v>
-      </c>
-      <c r="D9" s="61"/>
+        <v>61</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="103" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="75"/>
       <c r="E9" s="10" t="s">
         <v>34</v>
       </c>
@@ -5644,208 +5656,239 @@
       </c>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
-      <c r="K9" s="100" t="s">
-        <v>66</v>
-      </c>
-      <c r="L9" s="101"/>
-      <c r="M9" s="101"/>
-      <c r="N9" s="102"/>
-    </row>
-    <row r="10" spans="1:14" ht="12" customHeight="1">
-      <c r="A10" s="95" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" s="96"/>
-      <c r="C10" s="97" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="61"/>
+      <c r="K9" s="107" t="s">
+        <v>68</v>
+      </c>
+      <c r="L9" s="100"/>
+      <c r="M9" s="100"/>
+      <c r="N9" s="101"/>
+    </row>
+    <row r="10" spans="1:14" ht="24" customHeight="1">
+      <c r="A10" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="14"/>
+      <c r="C10" s="103" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="75"/>
       <c r="E10" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F10" s="10"/>
+        <v>34</v>
+      </c>
+      <c r="F10" s="10">
+        <v>4</v>
+      </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10" t="s">
         <v>37</v>
       </c>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
-      <c r="K10" s="98"/>
-      <c r="L10" s="98"/>
-      <c r="M10" s="98"/>
-      <c r="N10" s="99"/>
+      <c r="K10" s="104" t="s">
+        <v>66</v>
+      </c>
+      <c r="L10" s="105"/>
+      <c r="M10" s="105"/>
+      <c r="N10" s="106"/>
     </row>
     <row r="11" spans="1:14" ht="12" customHeight="1">
-      <c r="A11" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="97" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="61"/>
-      <c r="E11" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" s="11">
-        <v>4</v>
-      </c>
+      <c r="A11" s="112" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="113"/>
+      <c r="C11" s="103" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="75"/>
+      <c r="E11" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="10"/>
       <c r="G11" s="10"/>
       <c r="H11" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="I11" s="10" t="s">
-        <v>49</v>
-      </c>
+      <c r="I11" s="10"/>
       <c r="J11" s="10"/>
-      <c r="K11" s="98" t="s">
-        <v>67</v>
-      </c>
-      <c r="L11" s="98"/>
-      <c r="M11" s="98"/>
-      <c r="N11" s="99"/>
+      <c r="K11" s="100"/>
+      <c r="L11" s="100"/>
+      <c r="M11" s="100"/>
+      <c r="N11" s="101"/>
     </row>
     <row r="12" spans="1:14" ht="12" customHeight="1">
       <c r="A12" s="17" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B12" s="14"/>
-      <c r="C12" s="97" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="61"/>
-      <c r="E12" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="F12" s="10"/>
+      <c r="C12" s="103" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="75"/>
+      <c r="E12" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="11">
+        <v>4</v>
+      </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="I12" s="10"/>
+      <c r="I12" s="10" t="s">
+        <v>49</v>
+      </c>
       <c r="J12" s="10"/>
-      <c r="K12" s="98"/>
-      <c r="L12" s="98"/>
-      <c r="M12" s="98"/>
-      <c r="N12" s="99"/>
+      <c r="K12" s="100" t="s">
+        <v>67</v>
+      </c>
+      <c r="L12" s="100"/>
+      <c r="M12" s="100"/>
+      <c r="N12" s="101"/>
     </row>
     <row r="13" spans="1:14" ht="12" customHeight="1">
       <c r="A13" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="97" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="61"/>
+        <v>38</v>
+      </c>
+      <c r="B13" s="14"/>
+      <c r="C13" s="103" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="75"/>
       <c r="E13" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="F13" s="10">
-        <v>64</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="F13" s="10"/>
       <c r="G13" s="10"/>
       <c r="H13" s="10" t="s">
         <v>37</v>
       </c>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
-      <c r="K13" s="98"/>
-      <c r="L13" s="98"/>
-      <c r="M13" s="98"/>
-      <c r="N13" s="99"/>
+      <c r="K13" s="100"/>
+      <c r="L13" s="100"/>
+      <c r="M13" s="100"/>
+      <c r="N13" s="101"/>
     </row>
     <row r="14" spans="1:14" ht="12" customHeight="1">
       <c r="A14" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B14" s="13"/>
-      <c r="C14" s="97" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="61"/>
+      <c r="C14" s="103" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="75"/>
       <c r="E14" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="F14" s="10"/>
+        <v>69</v>
+      </c>
+      <c r="F14" s="10">
+        <v>64</v>
+      </c>
       <c r="G14" s="10"/>
       <c r="H14" s="10" t="s">
         <v>37</v>
       </c>
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
-      <c r="K14" s="98"/>
-      <c r="L14" s="98"/>
-      <c r="M14" s="98"/>
-      <c r="N14" s="99"/>
+      <c r="K14" s="100"/>
+      <c r="L14" s="100"/>
+      <c r="M14" s="100"/>
+      <c r="N14" s="101"/>
     </row>
     <row r="15" spans="1:14" ht="12" customHeight="1">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="13"/>
+      <c r="C15" s="103" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="75"/>
+      <c r="E15" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="100"/>
+      <c r="L15" s="100"/>
+      <c r="M15" s="100"/>
+      <c r="N15" s="101"/>
+    </row>
+    <row r="16" spans="1:14" ht="12" customHeight="1">
+      <c r="A16" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="19"/>
-      <c r="C15" s="50" t="s">
+      <c r="B16" s="19"/>
+      <c r="C16" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="49"/>
-      <c r="E15" s="16" t="s">
+      <c r="D16" s="55"/>
+      <c r="E16" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="F15" s="20">
+      <c r="F16" s="20">
         <v>64</v>
       </c>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="93"/>
-      <c r="L15" s="93"/>
-      <c r="M15" s="93"/>
-      <c r="N15" s="94"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="110"/>
+      <c r="L16" s="110"/>
+      <c r="M16" s="110"/>
+      <c r="N16" s="111"/>
     </row>
   </sheetData>
-  <mergeCells count="41">
+  <mergeCells count="44">
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
     <mergeCell ref="E1:F2"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:D3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="K3:N3"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="K9:N9"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="K8:N8"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="K7:N7"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="K13:N13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="K12:N12"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="K11:N11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5873,27 +5916,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="75" t="s">
+      <c r="B1" s="61"/>
+      <c r="C1" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="74"/>
-      <c r="E1" s="76" t="s">
+      <c r="D1" s="61"/>
+      <c r="E1" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="77"/>
-      <c r="G1" s="75" t="s">
+      <c r="F1" s="64"/>
+      <c r="G1" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75" t="s">
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="75"/>
+      <c r="K1" s="62"/>
       <c r="L1" s="7" t="s">
         <v>5</v>
       </c>
@@ -5905,25 +5948,25 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="12" customHeight="1">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84" t="s">
+      <c r="B2" s="71"/>
+      <c r="C2" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="84"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="84" t="s">
+      <c r="D2" s="71"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="109">
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="102">
         <v>42060</v>
       </c>
-      <c r="K2" s="86"/>
+      <c r="K2" s="73"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="4" t="s">
@@ -5931,14 +5974,14 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="12" customHeight="1">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="81" t="s">
+      <c r="B3" s="67"/>
+      <c r="C3" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="80"/>
+      <c r="D3" s="67"/>
       <c r="E3" s="8" t="s">
         <v>22</v>
       </c>
@@ -5957,22 +6000,22 @@
       <c r="J3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="81" t="s">
+      <c r="K3" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="81"/>
-      <c r="M3" s="81"/>
-      <c r="N3" s="82"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="69"/>
     </row>
     <row r="4" spans="1:14" ht="12" customHeight="1">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="97" t="s">
+      <c r="B4" s="75"/>
+      <c r="C4" s="103" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="110"/>
+      <c r="D4" s="93"/>
       <c r="E4" s="9" t="s">
         <v>34</v>
       </c>
@@ -5985,16 +6028,16 @@
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
-      <c r="K4" s="106"/>
-      <c r="L4" s="107"/>
-      <c r="M4" s="107"/>
-      <c r="N4" s="108"/>
+      <c r="K4" s="97"/>
+      <c r="L4" s="98"/>
+      <c r="M4" s="98"/>
+      <c r="N4" s="99"/>
     </row>
     <row r="5" spans="1:14" ht="12" customHeight="1">
-      <c r="A5" s="111" t="s">
+      <c r="A5" s="94" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="112"/>
+      <c r="B5" s="95"/>
       <c r="C5" s="114" t="s">
         <v>31</v>
       </c>
@@ -6013,16 +6056,16 @@
         <v>56</v>
       </c>
       <c r="J5" s="10"/>
-      <c r="K5" s="98"/>
-      <c r="L5" s="98"/>
-      <c r="M5" s="98"/>
-      <c r="N5" s="99"/>
+      <c r="K5" s="100"/>
+      <c r="L5" s="100"/>
+      <c r="M5" s="100"/>
+      <c r="N5" s="101"/>
     </row>
     <row r="6" spans="1:14" ht="12" customHeight="1">
-      <c r="A6" s="95" t="s">
+      <c r="A6" s="112" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="96"/>
+      <c r="B6" s="113"/>
       <c r="C6" s="116" t="s">
         <v>54</v>
       </c>
@@ -6037,20 +6080,20 @@
       </c>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
-      <c r="K6" s="98"/>
-      <c r="L6" s="98"/>
-      <c r="M6" s="98"/>
-      <c r="N6" s="99"/>
+      <c r="K6" s="100"/>
+      <c r="L6" s="100"/>
+      <c r="M6" s="100"/>
+      <c r="N6" s="101"/>
     </row>
     <row r="7" spans="1:14" ht="12" customHeight="1">
       <c r="A7" s="17" t="s">
         <v>55</v>
       </c>
       <c r="B7" s="15"/>
-      <c r="C7" s="64" t="s">
+      <c r="C7" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="61"/>
+      <c r="D7" s="75"/>
       <c r="E7" s="12" t="s">
         <v>34</v>
       </c>
@@ -6065,22 +6108,22 @@
         <v>49</v>
       </c>
       <c r="J7" s="10"/>
-      <c r="K7" s="98" t="s">
+      <c r="K7" s="100" t="s">
         <v>67</v>
       </c>
-      <c r="L7" s="98"/>
-      <c r="M7" s="98"/>
-      <c r="N7" s="99"/>
+      <c r="L7" s="100"/>
+      <c r="M7" s="100"/>
+      <c r="N7" s="101"/>
     </row>
     <row r="8" spans="1:14" ht="12" customHeight="1">
       <c r="A8" s="17" t="s">
         <v>38</v>
       </c>
       <c r="B8" s="14"/>
-      <c r="C8" s="64" t="s">
+      <c r="C8" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="61"/>
+      <c r="D8" s="75"/>
       <c r="E8" s="16" t="s">
         <v>46</v>
       </c>
@@ -6091,20 +6134,20 @@
       </c>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
-      <c r="K8" s="98"/>
-      <c r="L8" s="98"/>
-      <c r="M8" s="98"/>
-      <c r="N8" s="99"/>
+      <c r="K8" s="100"/>
+      <c r="L8" s="100"/>
+      <c r="M8" s="100"/>
+      <c r="N8" s="101"/>
     </row>
     <row r="9" spans="1:14" ht="12" customHeight="1">
       <c r="A9" s="17" t="s">
         <v>39</v>
       </c>
       <c r="B9" s="13"/>
-      <c r="C9" s="64" t="s">
+      <c r="C9" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="61"/>
+      <c r="D9" s="75"/>
       <c r="E9" s="16" t="s">
         <v>69</v>
       </c>
@@ -6117,20 +6160,20 @@
       </c>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
-      <c r="K9" s="98"/>
-      <c r="L9" s="98"/>
-      <c r="M9" s="98"/>
-      <c r="N9" s="99"/>
+      <c r="K9" s="100"/>
+      <c r="L9" s="100"/>
+      <c r="M9" s="100"/>
+      <c r="N9" s="101"/>
     </row>
     <row r="10" spans="1:14" ht="12" customHeight="1">
       <c r="A10" s="17" t="s">
         <v>40</v>
       </c>
       <c r="B10" s="13"/>
-      <c r="C10" s="64" t="s">
+      <c r="C10" s="78" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="61"/>
+      <c r="D10" s="75"/>
       <c r="E10" s="16" t="s">
         <v>46</v>
       </c>
@@ -6141,20 +6184,20 @@
       </c>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
-      <c r="K10" s="98"/>
-      <c r="L10" s="98"/>
-      <c r="M10" s="98"/>
-      <c r="N10" s="99"/>
+      <c r="K10" s="100"/>
+      <c r="L10" s="100"/>
+      <c r="M10" s="100"/>
+      <c r="N10" s="101"/>
     </row>
     <row r="11" spans="1:14" ht="12" customHeight="1">
       <c r="A11" s="18" t="s">
         <v>41</v>
       </c>
       <c r="B11" s="19"/>
-      <c r="C11" s="51" t="s">
+      <c r="C11" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="49"/>
+      <c r="D11" s="55"/>
       <c r="E11" s="16" t="s">
         <v>69</v>
       </c>
@@ -6165,28 +6208,19 @@
       <c r="H11" s="37"/>
       <c r="I11" s="20"/>
       <c r="J11" s="20"/>
-      <c r="K11" s="93"/>
-      <c r="L11" s="93"/>
-      <c r="M11" s="93"/>
-      <c r="N11" s="94"/>
+      <c r="K11" s="110"/>
+      <c r="L11" s="110"/>
+      <c r="M11" s="110"/>
+      <c r="N11" s="111"/>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F2"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="K3:N3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="K11:N11"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="K7:N7"/>
     <mergeCell ref="C8:D8"/>
@@ -6197,12 +6231,21 @@
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="K6:N6"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="K9:N9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F2"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J2:K2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6230,27 +6273,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="75" t="s">
+      <c r="B1" s="61"/>
+      <c r="C1" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="74"/>
-      <c r="E1" s="76" t="s">
+      <c r="D1" s="61"/>
+      <c r="E1" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="77"/>
-      <c r="G1" s="75" t="s">
+      <c r="F1" s="64"/>
+      <c r="G1" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75" t="s">
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="75"/>
+      <c r="K1" s="62"/>
       <c r="L1" s="31" t="s">
         <v>5</v>
       </c>
@@ -6262,25 +6305,25 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="12" customHeight="1">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84" t="s">
+      <c r="B2" s="71"/>
+      <c r="C2" s="71" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="84"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="84" t="s">
+      <c r="D2" s="71"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="109">
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="102">
         <v>42065</v>
       </c>
-      <c r="K2" s="86"/>
+      <c r="K2" s="73"/>
       <c r="L2" s="33"/>
       <c r="M2" s="33"/>
       <c r="N2" s="4" t="s">
@@ -6288,14 +6331,14 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="12" customHeight="1">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="81" t="s">
+      <c r="B3" s="67"/>
+      <c r="C3" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="80"/>
+      <c r="D3" s="67"/>
       <c r="E3" s="32" t="s">
         <v>22</v>
       </c>
@@ -6314,22 +6357,22 @@
       <c r="J3" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="81" t="s">
+      <c r="K3" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="81"/>
-      <c r="M3" s="81"/>
-      <c r="N3" s="82"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="69"/>
     </row>
     <row r="4" spans="1:14" ht="12" customHeight="1">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="64" t="s">
+      <c r="B4" s="75"/>
+      <c r="C4" s="78" t="s">
         <v>74</v>
       </c>
-      <c r="D4" s="110"/>
+      <c r="D4" s="93"/>
       <c r="E4" s="9" t="s">
         <v>34</v>
       </c>
@@ -6342,20 +6385,20 @@
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
-      <c r="K4" s="106"/>
-      <c r="L4" s="107"/>
-      <c r="M4" s="107"/>
-      <c r="N4" s="108"/>
+      <c r="K4" s="97"/>
+      <c r="L4" s="98"/>
+      <c r="M4" s="98"/>
+      <c r="N4" s="99"/>
     </row>
     <row r="5" spans="1:14" ht="12" customHeight="1">
-      <c r="A5" s="111" t="s">
+      <c r="A5" s="94" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="112"/>
-      <c r="C5" s="113" t="s">
+      <c r="B5" s="95"/>
+      <c r="C5" s="96" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="112"/>
+      <c r="D5" s="95"/>
       <c r="E5" s="9" t="s">
         <v>34</v>
       </c>
@@ -6370,20 +6413,20 @@
       <c r="J5" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="K5" s="98"/>
-      <c r="L5" s="98"/>
-      <c r="M5" s="98"/>
-      <c r="N5" s="99"/>
+      <c r="K5" s="100"/>
+      <c r="L5" s="100"/>
+      <c r="M5" s="100"/>
+      <c r="N5" s="101"/>
     </row>
     <row r="6" spans="1:14" ht="12" customHeight="1">
-      <c r="A6" s="104" t="s">
+      <c r="A6" s="108" t="s">
         <v>75</v>
       </c>
-      <c r="B6" s="105"/>
-      <c r="C6" s="97" t="s">
+      <c r="B6" s="109"/>
+      <c r="C6" s="103" t="s">
         <v>76</v>
       </c>
-      <c r="D6" s="61"/>
+      <c r="D6" s="75"/>
       <c r="E6" s="16" t="s">
         <v>79</v>
       </c>
@@ -6396,20 +6439,20 @@
       </c>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
-      <c r="K6" s="98"/>
-      <c r="L6" s="98"/>
-      <c r="M6" s="98"/>
-      <c r="N6" s="99"/>
+      <c r="K6" s="100"/>
+      <c r="L6" s="100"/>
+      <c r="M6" s="100"/>
+      <c r="N6" s="101"/>
     </row>
     <row r="7" spans="1:14" ht="12" customHeight="1">
-      <c r="A7" s="60" t="s">
+      <c r="A7" s="74" t="s">
         <v>77</v>
       </c>
-      <c r="B7" s="61"/>
-      <c r="C7" s="97" t="s">
+      <c r="B7" s="75"/>
+      <c r="C7" s="103" t="s">
         <v>78</v>
       </c>
-      <c r="D7" s="61"/>
+      <c r="D7" s="75"/>
       <c r="E7" s="9" t="s">
         <v>34</v>
       </c>
@@ -6422,20 +6465,20 @@
       </c>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
-      <c r="K7" s="98"/>
-      <c r="L7" s="98"/>
-      <c r="M7" s="98"/>
-      <c r="N7" s="99"/>
+      <c r="K7" s="100"/>
+      <c r="L7" s="100"/>
+      <c r="M7" s="100"/>
+      <c r="N7" s="101"/>
     </row>
     <row r="8" spans="1:14" ht="12" customHeight="1">
       <c r="A8" s="17" t="s">
         <v>38</v>
       </c>
       <c r="B8" s="14"/>
-      <c r="C8" s="97" t="s">
+      <c r="C8" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="61"/>
+      <c r="D8" s="75"/>
       <c r="E8" s="16" t="s">
         <v>46</v>
       </c>
@@ -6446,20 +6489,20 @@
       </c>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
-      <c r="K8" s="98"/>
-      <c r="L8" s="98"/>
-      <c r="M8" s="98"/>
-      <c r="N8" s="99"/>
+      <c r="K8" s="100"/>
+      <c r="L8" s="100"/>
+      <c r="M8" s="100"/>
+      <c r="N8" s="101"/>
     </row>
     <row r="9" spans="1:14" ht="12" customHeight="1">
       <c r="A9" s="17" t="s">
         <v>40</v>
       </c>
       <c r="B9" s="13"/>
-      <c r="C9" s="97" t="s">
+      <c r="C9" s="103" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="61"/>
+      <c r="D9" s="75"/>
       <c r="E9" s="16" t="s">
         <v>46</v>
       </c>
@@ -6470,13 +6513,32 @@
       </c>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
-      <c r="K9" s="98"/>
-      <c r="L9" s="98"/>
-      <c r="M9" s="98"/>
-      <c r="N9" s="99"/>
+      <c r="K9" s="100"/>
+      <c r="L9" s="100"/>
+      <c r="M9" s="100"/>
+      <c r="N9" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="K4:N4"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F2"/>
@@ -6486,25 +6548,6 @@
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="J2:K2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="K3:N3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="K9:N9"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="K8:N8"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="K7:N7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6532,27 +6575,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="75" t="s">
+      <c r="B1" s="61"/>
+      <c r="C1" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="74"/>
-      <c r="E1" s="76" t="s">
+      <c r="D1" s="61"/>
+      <c r="E1" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="77"/>
-      <c r="G1" s="75" t="s">
+      <c r="F1" s="64"/>
+      <c r="G1" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75" t="s">
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="75"/>
+      <c r="K1" s="62"/>
       <c r="L1" s="31" t="s">
         <v>5</v>
       </c>
@@ -6564,25 +6607,25 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="12" customHeight="1">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84" t="s">
+      <c r="B2" s="71"/>
+      <c r="C2" s="71" t="s">
         <v>83</v>
       </c>
-      <c r="D2" s="84"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="84" t="s">
+      <c r="D2" s="71"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="109">
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="102">
         <v>42065</v>
       </c>
-      <c r="K2" s="86"/>
+      <c r="K2" s="73"/>
       <c r="L2" s="33"/>
       <c r="M2" s="33"/>
       <c r="N2" s="4" t="s">
@@ -6590,14 +6633,14 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="12" customHeight="1">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="81" t="s">
+      <c r="B3" s="67"/>
+      <c r="C3" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="80"/>
+      <c r="D3" s="67"/>
       <c r="E3" s="32" t="s">
         <v>22</v>
       </c>
@@ -6616,22 +6659,22 @@
       <c r="J3" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="81" t="s">
+      <c r="K3" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="81"/>
-      <c r="M3" s="81"/>
-      <c r="N3" s="82"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="69"/>
     </row>
     <row r="4" spans="1:14" ht="12" customHeight="1">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="64" t="s">
+      <c r="B4" s="75"/>
+      <c r="C4" s="78" t="s">
         <v>81</v>
       </c>
-      <c r="D4" s="110"/>
+      <c r="D4" s="93"/>
       <c r="E4" s="9" t="s">
         <v>34</v>
       </c>
@@ -6644,20 +6687,20 @@
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
-      <c r="K4" s="106"/>
-      <c r="L4" s="107"/>
-      <c r="M4" s="107"/>
-      <c r="N4" s="108"/>
+      <c r="K4" s="97"/>
+      <c r="L4" s="98"/>
+      <c r="M4" s="98"/>
+      <c r="N4" s="99"/>
     </row>
     <row r="5" spans="1:14" ht="12" customHeight="1">
-      <c r="A5" s="111" t="s">
+      <c r="A5" s="94" t="s">
         <v>82</v>
       </c>
-      <c r="B5" s="112"/>
-      <c r="C5" s="113" t="s">
+      <c r="B5" s="95"/>
+      <c r="C5" s="96" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="112"/>
+      <c r="D5" s="95"/>
       <c r="E5" s="9" t="s">
         <v>34</v>
       </c>
@@ -6672,20 +6715,20 @@
       <c r="J5" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="K5" s="98"/>
-      <c r="L5" s="98"/>
-      <c r="M5" s="98"/>
-      <c r="N5" s="99"/>
+      <c r="K5" s="100"/>
+      <c r="L5" s="100"/>
+      <c r="M5" s="100"/>
+      <c r="N5" s="101"/>
     </row>
     <row r="6" spans="1:14" ht="12" customHeight="1">
-      <c r="A6" s="104" t="s">
+      <c r="A6" s="108" t="s">
         <v>75</v>
       </c>
-      <c r="B6" s="105"/>
-      <c r="C6" s="97" t="s">
+      <c r="B6" s="109"/>
+      <c r="C6" s="103" t="s">
         <v>76</v>
       </c>
-      <c r="D6" s="61"/>
+      <c r="D6" s="75"/>
       <c r="E6" s="16" t="s">
         <v>79</v>
       </c>
@@ -6698,20 +6741,20 @@
       </c>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
-      <c r="K6" s="98"/>
-      <c r="L6" s="98"/>
-      <c r="M6" s="98"/>
-      <c r="N6" s="99"/>
+      <c r="K6" s="100"/>
+      <c r="L6" s="100"/>
+      <c r="M6" s="100"/>
+      <c r="N6" s="101"/>
     </row>
     <row r="7" spans="1:14" ht="12" customHeight="1">
-      <c r="A7" s="60" t="s">
+      <c r="A7" s="74" t="s">
         <v>77</v>
       </c>
-      <c r="B7" s="61"/>
-      <c r="C7" s="97" t="s">
+      <c r="B7" s="75"/>
+      <c r="C7" s="103" t="s">
         <v>78</v>
       </c>
-      <c r="D7" s="61"/>
+      <c r="D7" s="75"/>
       <c r="E7" s="9" t="s">
         <v>34</v>
       </c>
@@ -6724,20 +6767,20 @@
       </c>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
-      <c r="K7" s="98"/>
-      <c r="L7" s="98"/>
-      <c r="M7" s="98"/>
-      <c r="N7" s="99"/>
+      <c r="K7" s="100"/>
+      <c r="L7" s="100"/>
+      <c r="M7" s="100"/>
+      <c r="N7" s="101"/>
     </row>
     <row r="8" spans="1:14" ht="12" customHeight="1">
       <c r="A8" s="17" t="s">
         <v>38</v>
       </c>
       <c r="B8" s="14"/>
-      <c r="C8" s="97" t="s">
+      <c r="C8" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="61"/>
+      <c r="D8" s="75"/>
       <c r="E8" s="16" t="s">
         <v>46</v>
       </c>
@@ -6748,20 +6791,20 @@
       </c>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
-      <c r="K8" s="98"/>
-      <c r="L8" s="98"/>
-      <c r="M8" s="98"/>
-      <c r="N8" s="99"/>
+      <c r="K8" s="100"/>
+      <c r="L8" s="100"/>
+      <c r="M8" s="100"/>
+      <c r="N8" s="101"/>
     </row>
     <row r="9" spans="1:14" ht="12" customHeight="1">
       <c r="A9" s="17" t="s">
         <v>40</v>
       </c>
       <c r="B9" s="13"/>
-      <c r="C9" s="97" t="s">
+      <c r="C9" s="103" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="61"/>
+      <c r="D9" s="75"/>
       <c r="E9" s="16" t="s">
         <v>46</v>
       </c>
@@ -6772,13 +6815,32 @@
       </c>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
-      <c r="K9" s="98"/>
-      <c r="L9" s="98"/>
-      <c r="M9" s="98"/>
-      <c r="N9" s="99"/>
+      <c r="K9" s="100"/>
+      <c r="L9" s="100"/>
+      <c r="M9" s="100"/>
+      <c r="N9" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="K4:N4"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F2"/>
@@ -6788,25 +6850,6 @@
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="J2:K2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="K3:N3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="K9:N9"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="K7:N7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="K8:N8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6834,27 +6877,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="75" t="s">
+      <c r="B1" s="61"/>
+      <c r="C1" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="74"/>
-      <c r="E1" s="76" t="s">
+      <c r="D1" s="61"/>
+      <c r="E1" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="77"/>
-      <c r="G1" s="75" t="s">
+      <c r="F1" s="64"/>
+      <c r="G1" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75" t="s">
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="75"/>
+      <c r="K1" s="62"/>
       <c r="L1" s="34" t="s">
         <v>5</v>
       </c>
@@ -6866,25 +6909,25 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="12" customHeight="1">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84" t="s">
+      <c r="B2" s="71"/>
+      <c r="C2" s="71" t="s">
         <v>92</v>
       </c>
-      <c r="D2" s="84"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="84" t="s">
+      <c r="D2" s="71"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="109">
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="102">
         <v>42095</v>
       </c>
-      <c r="K2" s="86"/>
+      <c r="K2" s="73"/>
       <c r="L2" s="36" t="s">
         <v>106</v>
       </c>
@@ -6896,14 +6939,14 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="12" customHeight="1">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="81" t="s">
+      <c r="B3" s="67"/>
+      <c r="C3" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="80"/>
+      <c r="D3" s="67"/>
       <c r="E3" s="35" t="s">
         <v>22</v>
       </c>
@@ -6922,22 +6965,22 @@
       <c r="J3" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="81" t="s">
+      <c r="K3" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="81"/>
-      <c r="M3" s="81"/>
-      <c r="N3" s="82"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="69"/>
     </row>
     <row r="4" spans="1:14" ht="12" customHeight="1">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="97" t="s">
+      <c r="B4" s="75"/>
+      <c r="C4" s="103" t="s">
         <v>95</v>
       </c>
-      <c r="D4" s="110"/>
+      <c r="D4" s="93"/>
       <c r="E4" s="9" t="s">
         <v>34</v>
       </c>
@@ -6950,17 +6993,17 @@
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
-      <c r="K4" s="106"/>
-      <c r="L4" s="107"/>
-      <c r="M4" s="107"/>
-      <c r="N4" s="108"/>
+      <c r="K4" s="97"/>
+      <c r="L4" s="98"/>
+      <c r="M4" s="98"/>
+      <c r="N4" s="99"/>
     </row>
     <row r="5" spans="1:14" ht="12" customHeight="1">
-      <c r="A5" s="111" t="s">
+      <c r="A5" s="94" t="s">
         <v>93</v>
       </c>
-      <c r="B5" s="112"/>
-      <c r="C5" s="113" t="s">
+      <c r="B5" s="95"/>
+      <c r="C5" s="96" t="s">
         <v>96</v>
       </c>
       <c r="D5" s="118"/>
@@ -6976,16 +7019,16 @@
       </c>
       <c r="I5" s="10"/>
       <c r="J5" s="10"/>
-      <c r="K5" s="98"/>
-      <c r="L5" s="98"/>
-      <c r="M5" s="98"/>
-      <c r="N5" s="99"/>
+      <c r="K5" s="100"/>
+      <c r="L5" s="100"/>
+      <c r="M5" s="100"/>
+      <c r="N5" s="101"/>
     </row>
     <row r="6" spans="1:14" ht="12" customHeight="1">
-      <c r="A6" s="95" t="s">
+      <c r="A6" s="112" t="s">
         <v>94</v>
       </c>
-      <c r="B6" s="96"/>
+      <c r="B6" s="113"/>
       <c r="C6" s="116" t="s">
         <v>97</v>
       </c>
@@ -7004,16 +7047,16 @@
         <v>98</v>
       </c>
       <c r="J6" s="10"/>
-      <c r="K6" s="98"/>
-      <c r="L6" s="98"/>
-      <c r="M6" s="98"/>
-      <c r="N6" s="99"/>
+      <c r="K6" s="100"/>
+      <c r="L6" s="100"/>
+      <c r="M6" s="100"/>
+      <c r="N6" s="101"/>
     </row>
     <row r="7" spans="1:14" ht="12" customHeight="1">
-      <c r="A7" s="95" t="s">
+      <c r="A7" s="112" t="s">
         <v>99</v>
       </c>
-      <c r="B7" s="96"/>
+      <c r="B7" s="113"/>
       <c r="C7" s="116" t="s">
         <v>100</v>
       </c>
@@ -7030,10 +7073,10 @@
       </c>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
-      <c r="K7" s="98"/>
-      <c r="L7" s="98"/>
-      <c r="M7" s="98"/>
-      <c r="N7" s="99"/>
+      <c r="K7" s="100"/>
+      <c r="L7" s="100"/>
+      <c r="M7" s="100"/>
+      <c r="N7" s="101"/>
     </row>
     <row r="8" spans="1:14" ht="12" customHeight="1">
       <c r="A8" s="44" t="s">
@@ -7070,10 +7113,10 @@
         <v>47</v>
       </c>
       <c r="B9" s="15"/>
-      <c r="C9" s="64" t="s">
+      <c r="C9" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="61"/>
+      <c r="D9" s="75"/>
       <c r="E9" s="12" t="s">
         <v>34</v>
       </c>
@@ -7088,22 +7131,22 @@
         <v>49</v>
       </c>
       <c r="J9" s="10"/>
-      <c r="K9" s="98" t="s">
+      <c r="K9" s="100" t="s">
         <v>67</v>
       </c>
-      <c r="L9" s="98"/>
-      <c r="M9" s="98"/>
-      <c r="N9" s="99"/>
+      <c r="L9" s="100"/>
+      <c r="M9" s="100"/>
+      <c r="N9" s="101"/>
     </row>
     <row r="10" spans="1:14" ht="12" customHeight="1">
       <c r="A10" s="17" t="s">
         <v>38</v>
       </c>
       <c r="B10" s="14"/>
-      <c r="C10" s="64" t="s">
+      <c r="C10" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="61"/>
+      <c r="D10" s="75"/>
       <c r="E10" s="16" t="s">
         <v>46</v>
       </c>
@@ -7114,20 +7157,20 @@
       </c>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
-      <c r="K10" s="98"/>
-      <c r="L10" s="98"/>
-      <c r="M10" s="98"/>
-      <c r="N10" s="99"/>
+      <c r="K10" s="100"/>
+      <c r="L10" s="100"/>
+      <c r="M10" s="100"/>
+      <c r="N10" s="101"/>
     </row>
     <row r="11" spans="1:14" ht="12" customHeight="1">
       <c r="A11" s="17" t="s">
         <v>40</v>
       </c>
       <c r="B11" s="13"/>
-      <c r="C11" s="64" t="s">
+      <c r="C11" s="78" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="61"/>
+      <c r="D11" s="75"/>
       <c r="E11" s="16" t="s">
         <v>46</v>
       </c>
@@ -7138,13 +7181,34 @@
       </c>
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
-      <c r="K11" s="98"/>
-      <c r="L11" s="98"/>
-      <c r="M11" s="98"/>
-      <c r="N11" s="99"/>
+      <c r="K11" s="100"/>
+      <c r="L11" s="100"/>
+      <c r="M11" s="100"/>
+      <c r="N11" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="K4:N4"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F2"/>
@@ -7154,27 +7218,6 @@
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="J2:K2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="K3:N3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="K11:N11"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="K7:N7"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="K9:N9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="K10:N10"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7202,27 +7245,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="75" t="s">
+      <c r="B1" s="61"/>
+      <c r="C1" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="74"/>
-      <c r="E1" s="76" t="s">
+      <c r="D1" s="61"/>
+      <c r="E1" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="77"/>
-      <c r="G1" s="75" t="s">
+      <c r="F1" s="64"/>
+      <c r="G1" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75" t="s">
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="75"/>
+      <c r="K1" s="62"/>
       <c r="L1" s="39" t="s">
         <v>5</v>
       </c>
@@ -7234,25 +7277,25 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="12" customHeight="1">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84" t="s">
+      <c r="B2" s="71"/>
+      <c r="C2" s="71" t="s">
         <v>107</v>
       </c>
-      <c r="D2" s="84"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="84" t="s">
+      <c r="D2" s="71"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="109">
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="102">
         <v>42118</v>
       </c>
-      <c r="K2" s="86"/>
+      <c r="K2" s="73"/>
       <c r="L2" s="41"/>
       <c r="M2" s="3"/>
       <c r="N2" s="4" t="s">
@@ -7260,14 +7303,14 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="12" customHeight="1">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="81" t="s">
+      <c r="B3" s="67"/>
+      <c r="C3" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="80"/>
+      <c r="D3" s="67"/>
       <c r="E3" s="40" t="s">
         <v>22</v>
       </c>
@@ -7286,22 +7329,22 @@
       <c r="J3" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="81" t="s">
+      <c r="K3" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="81"/>
-      <c r="M3" s="81"/>
-      <c r="N3" s="82"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="69"/>
     </row>
     <row r="4" spans="1:14" ht="12" customHeight="1">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="97" t="s">
+      <c r="B4" s="75"/>
+      <c r="C4" s="103" t="s">
         <v>108</v>
       </c>
-      <c r="D4" s="110"/>
+      <c r="D4" s="93"/>
       <c r="E4" s="9" t="s">
         <v>34</v>
       </c>
@@ -7314,17 +7357,17 @@
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
-      <c r="K4" s="106"/>
-      <c r="L4" s="107"/>
-      <c r="M4" s="107"/>
-      <c r="N4" s="108"/>
+      <c r="K4" s="97"/>
+      <c r="L4" s="98"/>
+      <c r="M4" s="98"/>
+      <c r="N4" s="99"/>
     </row>
     <row r="5" spans="1:14" ht="12" customHeight="1">
-      <c r="A5" s="111" t="s">
+      <c r="A5" s="94" t="s">
         <v>109</v>
       </c>
-      <c r="B5" s="112"/>
-      <c r="C5" s="113" t="s">
+      <c r="B5" s="95"/>
+      <c r="C5" s="96" t="s">
         <v>110</v>
       </c>
       <c r="D5" s="118"/>
@@ -7340,20 +7383,20 @@
       </c>
       <c r="I5" s="10"/>
       <c r="J5" s="10"/>
-      <c r="K5" s="98"/>
-      <c r="L5" s="98"/>
-      <c r="M5" s="98"/>
-      <c r="N5" s="99"/>
+      <c r="K5" s="100"/>
+      <c r="L5" s="100"/>
+      <c r="M5" s="100"/>
+      <c r="N5" s="101"/>
     </row>
     <row r="6" spans="1:14" ht="12" customHeight="1">
       <c r="A6" s="17" t="s">
         <v>47</v>
       </c>
       <c r="B6" s="15"/>
-      <c r="C6" s="64" t="s">
+      <c r="C6" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="61"/>
+      <c r="D6" s="75"/>
       <c r="E6" s="12" t="s">
         <v>34</v>
       </c>
@@ -7368,22 +7411,22 @@
         <v>49</v>
       </c>
       <c r="J6" s="10"/>
-      <c r="K6" s="98" t="s">
+      <c r="K6" s="100" t="s">
         <v>67</v>
       </c>
-      <c r="L6" s="98"/>
-      <c r="M6" s="98"/>
-      <c r="N6" s="99"/>
+      <c r="L6" s="100"/>
+      <c r="M6" s="100"/>
+      <c r="N6" s="101"/>
     </row>
     <row r="7" spans="1:14" ht="12" customHeight="1">
       <c r="A7" s="17" t="s">
         <v>38</v>
       </c>
       <c r="B7" s="14"/>
-      <c r="C7" s="64" t="s">
+      <c r="C7" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="61"/>
+      <c r="D7" s="75"/>
       <c r="E7" s="16" t="s">
         <v>46</v>
       </c>
@@ -7394,20 +7437,20 @@
       </c>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
-      <c r="K7" s="98"/>
-      <c r="L7" s="98"/>
-      <c r="M7" s="98"/>
-      <c r="N7" s="99"/>
+      <c r="K7" s="100"/>
+      <c r="L7" s="100"/>
+      <c r="M7" s="100"/>
+      <c r="N7" s="101"/>
     </row>
     <row r="8" spans="1:14" ht="12" customHeight="1">
       <c r="A8" s="17" t="s">
         <v>40</v>
       </c>
       <c r="B8" s="13"/>
-      <c r="C8" s="64" t="s">
+      <c r="C8" s="78" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="61"/>
+      <c r="D8" s="75"/>
       <c r="E8" s="16" t="s">
         <v>46</v>
       </c>
@@ -7418,13 +7461,28 @@
       </c>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
-      <c r="K8" s="98"/>
-      <c r="L8" s="98"/>
-      <c r="M8" s="98"/>
-      <c r="N8" s="99"/>
+      <c r="K8" s="100"/>
+      <c r="L8" s="100"/>
+      <c r="M8" s="100"/>
+      <c r="N8" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="K4:N4"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F2"/>
@@ -7434,21 +7492,6 @@
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="J2:K2"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="K3:N3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="K8:N8"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="K7:N7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7461,7 +7504,7 @@
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.625" defaultRowHeight="12" customHeight="1"/>
@@ -7476,27 +7519,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="75" t="s">
+      <c r="B1" s="61"/>
+      <c r="C1" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="74"/>
-      <c r="E1" s="76" t="s">
+      <c r="D1" s="61"/>
+      <c r="E1" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="77"/>
-      <c r="G1" s="75" t="s">
+      <c r="F1" s="64"/>
+      <c r="G1" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75" t="s">
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="75"/>
+      <c r="K1" s="62"/>
       <c r="L1" s="39" t="s">
         <v>5</v>
       </c>
@@ -7508,25 +7551,25 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="12" customHeight="1">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84" t="s">
+      <c r="B2" s="71"/>
+      <c r="C2" s="71" t="s">
         <v>111</v>
       </c>
-      <c r="D2" s="84"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="84" t="s">
+      <c r="D2" s="71"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="109">
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="102">
         <v>42118</v>
       </c>
-      <c r="K2" s="86"/>
+      <c r="K2" s="73"/>
       <c r="L2" s="41"/>
       <c r="M2" s="3"/>
       <c r="N2" s="4" t="s">
@@ -7534,14 +7577,14 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="12" customHeight="1">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="81" t="s">
+      <c r="B3" s="67"/>
+      <c r="C3" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="80"/>
+      <c r="D3" s="67"/>
       <c r="E3" s="40" t="s">
         <v>22</v>
       </c>
@@ -7560,22 +7603,22 @@
       <c r="J3" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="81" t="s">
+      <c r="K3" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="81"/>
-      <c r="M3" s="81"/>
-      <c r="N3" s="82"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="69"/>
     </row>
     <row r="4" spans="1:14" ht="12" customHeight="1">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="97" t="s">
+      <c r="B4" s="75"/>
+      <c r="C4" s="103" t="s">
         <v>108</v>
       </c>
-      <c r="D4" s="110"/>
+      <c r="D4" s="93"/>
       <c r="E4" s="9" t="s">
         <v>34</v>
       </c>
@@ -7588,17 +7631,17 @@
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
-      <c r="K4" s="106"/>
-      <c r="L4" s="107"/>
-      <c r="M4" s="107"/>
-      <c r="N4" s="108"/>
+      <c r="K4" s="97"/>
+      <c r="L4" s="98"/>
+      <c r="M4" s="98"/>
+      <c r="N4" s="99"/>
     </row>
     <row r="5" spans="1:14" ht="12" customHeight="1">
-      <c r="A5" s="111" t="s">
+      <c r="A5" s="94" t="s">
         <v>112</v>
       </c>
-      <c r="B5" s="112"/>
-      <c r="C5" s="113" t="s">
+      <c r="B5" s="95"/>
+      <c r="C5" s="96" t="s">
         <v>95</v>
       </c>
       <c r="D5" s="118"/>
@@ -7614,17 +7657,17 @@
       </c>
       <c r="I5" s="10"/>
       <c r="J5" s="10"/>
-      <c r="K5" s="98"/>
-      <c r="L5" s="98"/>
-      <c r="M5" s="98"/>
-      <c r="N5" s="99"/>
+      <c r="K5" s="100"/>
+      <c r="L5" s="100"/>
+      <c r="M5" s="100"/>
+      <c r="N5" s="101"/>
     </row>
     <row r="6" spans="1:14" ht="12" customHeight="1">
-      <c r="A6" s="111" t="s">
-        <v>113</v>
-      </c>
-      <c r="B6" s="112"/>
-      <c r="C6" s="113" t="s">
+      <c r="A6" s="94" t="s">
+        <v>120</v>
+      </c>
+      <c r="B6" s="95"/>
+      <c r="C6" s="96" t="s">
         <v>108</v>
       </c>
       <c r="D6" s="118"/>
@@ -7640,20 +7683,20 @@
       </c>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
-      <c r="K6" s="98"/>
-      <c r="L6" s="98"/>
-      <c r="M6" s="98"/>
-      <c r="N6" s="99"/>
+      <c r="K6" s="100"/>
+      <c r="L6" s="100"/>
+      <c r="M6" s="100"/>
+      <c r="N6" s="101"/>
     </row>
     <row r="7" spans="1:14" ht="12" customHeight="1">
       <c r="A7" s="17" t="s">
         <v>47</v>
       </c>
       <c r="B7" s="15"/>
-      <c r="C7" s="64" t="s">
+      <c r="C7" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="61"/>
+      <c r="D7" s="75"/>
       <c r="E7" s="12" t="s">
         <v>34</v>
       </c>
@@ -7668,22 +7711,22 @@
         <v>49</v>
       </c>
       <c r="J7" s="10"/>
-      <c r="K7" s="98" t="s">
+      <c r="K7" s="100" t="s">
         <v>67</v>
       </c>
-      <c r="L7" s="98"/>
-      <c r="M7" s="98"/>
-      <c r="N7" s="99"/>
+      <c r="L7" s="100"/>
+      <c r="M7" s="100"/>
+      <c r="N7" s="101"/>
     </row>
     <row r="8" spans="1:14" ht="12" customHeight="1">
       <c r="A8" s="17" t="s">
         <v>38</v>
       </c>
       <c r="B8" s="14"/>
-      <c r="C8" s="64" t="s">
+      <c r="C8" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="61"/>
+      <c r="D8" s="75"/>
       <c r="E8" s="16" t="s">
         <v>46</v>
       </c>
@@ -7694,20 +7737,20 @@
       </c>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
-      <c r="K8" s="98"/>
-      <c r="L8" s="98"/>
-      <c r="M8" s="98"/>
-      <c r="N8" s="99"/>
+      <c r="K8" s="100"/>
+      <c r="L8" s="100"/>
+      <c r="M8" s="100"/>
+      <c r="N8" s="101"/>
     </row>
     <row r="9" spans="1:14" ht="12" customHeight="1">
       <c r="A9" s="17" t="s">
         <v>40</v>
       </c>
       <c r="B9" s="13"/>
-      <c r="C9" s="64" t="s">
+      <c r="C9" s="78" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="61"/>
+      <c r="D9" s="75"/>
       <c r="E9" s="16" t="s">
         <v>46</v>
       </c>
@@ -7718,13 +7761,31 @@
       </c>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
-      <c r="K9" s="98"/>
-      <c r="L9" s="98"/>
-      <c r="M9" s="98"/>
-      <c r="N9" s="99"/>
+      <c r="K9" s="100"/>
+      <c r="L9" s="100"/>
+      <c r="M9" s="100"/>
+      <c r="N9" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="K4:N4"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F2"/>
@@ -7734,24 +7795,6 @@
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="J2:K2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="K3:N3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="K7:N7"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="K9:N9"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="K8:N8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
